--- a/spreadsheet/macrofree/cost_checklist.zh-Hant.xlsx
+++ b/spreadsheet/macrofree/cost_checklist.zh-Hant.xlsx
@@ -1115,7 +1115,7 @@
       </c>
       <c r="C9" s="21" t="inlineStr">
         <is>
-          <t>檢查未找到基礎數據源的備份實例</t>
+          <t>檢查未找到底層數據源的備份實例</t>
         </is>
       </c>
       <c r="D9" s="21" t="n"/>
@@ -1199,7 +1199,7 @@
       </c>
       <c r="C11" s="21" t="inlineStr">
         <is>
-          <t>考慮暫停和停止技術（X 天后暫停服務，2 天后停止，3 天后刪除/解除分配）</t>
+          <t>考慮暫停和停止技術（在 x 天后暫停服務，在 2 次後停止，在 3 次後刪除/解除分配）</t>
         </is>
       </c>
       <c r="D11" s="21" t="n"/>
@@ -1283,7 +1283,7 @@
       </c>
       <c r="C13" s="21" t="inlineStr">
         <is>
-          <t>考慮在非任務關鍵型應用程式的 Site Recovery 儲存和備份之間取得良好的平衡</t>
+          <t>考慮在網站恢復存儲和非任務關鍵型應用程式的備份之間取得良好的平衡</t>
         </is>
       </c>
       <c r="D13" s="21" t="n"/>
@@ -1325,7 +1325,7 @@
       </c>
       <c r="C14" s="21" t="inlineStr">
         <is>
-          <t>檢查 40 個不同 Log Analytics 工作區中的支出和節省機會 - 對非 PROD 工作區使用不同的保留和數據收集 - 為意識和層大小調整創建每日上限 - 如果確實設置了每日上限，除了在達到上限時創建警報外，請確保還創建警報規則，以便在達到某個百分比時收到通知（例如 90%）。- 如果可能，請考慮工作空間轉換 - https://learn.microsoft.com/azure/azure-monitor/essentials/data-collection-transformations#workspace-transformation-dcr</t>
+          <t>檢查 40 個不同 Log Analytics 工作區之間的支出和節省機會 - 對非生產工作區使用不同的保留和數據收集 - 創建每日上限以實現意識和層大小調整 - 如果確實設置了每日上限，除了在達到上限時創建警報外，請確保還創建警報規則，以便在達到某個百分比（例如 90%）時收到通知。- 如果可能，考慮工作空間改造 - https://learn.microsoft.com/azure/azure-monitor/essentials/data-collection-transformations#workspace-transformation-dcr</t>
         </is>
       </c>
       <c r="D14" s="21" t="n"/>
@@ -1371,7 +1371,7 @@
       </c>
       <c r="C15" s="21" t="inlineStr">
         <is>
-          <t>強制實施清除日誌策略和自動化（如果需要，可以將記錄移至冷存儲）</t>
+          <t>強制執行清除日誌策略和自動化（如果需要，可以將記錄移至冷存儲）</t>
         </is>
       </c>
       <c r="D15" s="21" t="n"/>
@@ -1412,7 +1412,7 @@
       </c>
       <c r="B16" s="21" t="inlineStr">
         <is>
-          <t>運行孤立資源工作簿 - 刪除或暫停幻影專案</t>
+          <t>運行孤立資源工作簿 - 刪除或暫停幽靈項</t>
         </is>
       </c>
       <c r="C16" s="21" t="inlineStr">
@@ -1504,7 +1504,7 @@
       </c>
       <c r="B18" s="21" t="inlineStr">
         <is>
-          <t>已停止/已解除分配的 VM：檢查磁碟</t>
+          <t>已停止/解除分配的 VM：檢查磁碟</t>
         </is>
       </c>
       <c r="C18" s="21" t="inlineStr">
@@ -1633,7 +1633,7 @@
     <row r="21" ht="16.5" customHeight="1">
       <c r="A21" s="21" t="inlineStr">
         <is>
-          <t>DB/APP調優</t>
+          <t>資料庫/應用調優</t>
         </is>
       </c>
       <c r="B21" s="21" t="inlineStr">
@@ -1643,7 +1643,7 @@
       </c>
       <c r="C21" s="21" t="inlineStr">
         <is>
-          <t>規劃資料庫優化，以縮小相關服務的大小（並提高性能）</t>
+          <t>規劃資料庫優化，以縮小相關服務的規模（並提高性能）</t>
         </is>
       </c>
       <c r="D21" s="21" t="n"/>
@@ -1685,7 +1685,7 @@
       </c>
       <c r="C22" s="21" t="inlineStr">
         <is>
-          <t>將應用現代化為微服務架構將產生讓應用根據單個服務而不是整個堆疊進行縮放的效果</t>
+          <t>將應用現代化為微服務架構將產生讓應用根據單個服務而不是整個堆疊進行擴展的效果</t>
         </is>
       </c>
       <c r="D22" s="21" t="n"/>
@@ -1727,7 +1727,7 @@
       </c>
       <c r="C23" s="21" t="inlineStr">
         <is>
-          <t>優化資料庫查詢將提高性能，並允許更好地調整存儲和虛擬機的大小</t>
+          <t>優化資料庫查詢將提高性能，並允許更好地調整存儲和 VM 的大小</t>
         </is>
       </c>
       <c r="D23" s="21" t="n"/>
@@ -1769,7 +1769,7 @@
       </c>
       <c r="C24" s="21" t="inlineStr">
         <is>
-          <t>在 PaaS 服務上使用需求塑造將優化成本和性能</t>
+          <t>在 PaaS 服務上使用需求調整將優化成本和性能</t>
         </is>
       </c>
       <c r="D24" s="21" t="n"/>
@@ -1853,7 +1853,7 @@
       </c>
       <c r="C26" s="21" t="inlineStr">
         <is>
-          <t>確保已將顧問配置為 VM 大小調整</t>
+          <t>確保 advisor 配置為適合 VM 大小調整</t>
         </is>
       </c>
       <c r="D26" s="21" t="n"/>
@@ -1895,7 +1895,7 @@
       </c>
       <c r="C27" s="21" t="inlineStr">
         <is>
-          <t>請考慮實施 IAC 腳本或 DevOps 管道以匹配成本治理流程</t>
+          <t>請考慮實現 IaC 腳本或 DevOps 管道以匹配成本調控流程</t>
         </is>
       </c>
       <c r="D27" s="21" t="n"/>
@@ -1936,7 +1936,7 @@
       </c>
       <c r="C28" s="21" t="inlineStr">
         <is>
-          <t>為具有可變成本的應用程式設定成本警報（理想情況下是所有應用程式）</t>
+          <t>為具有可變成本的應用程式設定成本警報（理想情況下適用於所有應用程式）</t>
         </is>
       </c>
       <c r="D28" s="21" t="n"/>
@@ -1977,7 +1977,7 @@
       </c>
       <c r="C29" s="21" t="inlineStr">
         <is>
-          <t>使用 Azure 自動化：自動執行重複性任務可以説明你節省時間和資源，從而降低流程中的成本。</t>
+          <t>使用 Azure 自動化：自動執行重複性任務可説明你節省時間和資源，從而降低流程成本。</t>
         </is>
       </c>
       <c r="D29" s="21" t="n"/>
@@ -2059,7 +2059,7 @@
       </c>
       <c r="C31" s="21" t="inlineStr">
         <is>
-          <t>嘗試建立每月支出的基線和可接受的儲蓄目標（現階段不會優化新服務）</t>
+          <t>嘗試建立每月支出的基線和可接受的節約目標（現階段不會優化新服務）</t>
         </is>
       </c>
       <c r="D31" s="21" t="n"/>
@@ -2226,7 +2226,7 @@
       </c>
       <c r="C35" s="21" t="inlineStr">
         <is>
-          <t>在成本分析中 - 使用每日粒度（按服務名稱分組）分析過去 3 個月的支出並確定前 3 名支出者</t>
+          <t>在成本分析中 - 使用每日粒度，按服務名稱分組，分析過去 3 個月的支出，並確定前 3 名支出者</t>
         </is>
       </c>
       <c r="D35" s="21" t="n"/>
@@ -2268,7 +2268,7 @@
       </c>
       <c r="C36" s="21" t="inlineStr">
         <is>
-          <t>每天檢查成本峰值和異常情況（最好使用自動計費匯出）</t>
+          <t>每天檢查成本峰值和異常情況（理想情況下使用自動計費匯出）</t>
         </is>
       </c>
       <c r="D36" s="21" t="n"/>
@@ -2310,7 +2310,7 @@
       </c>
       <c r="C37" s="21" t="inlineStr">
         <is>
-          <t>自動進行成本檢索，以便進行深入分析或集成</t>
+          <t>自動檢索成本以進行深度分析或集成</t>
         </is>
       </c>
       <c r="D37" s="21" t="n"/>
@@ -2436,7 +2436,7 @@
       </c>
       <c r="C40" s="21" t="inlineStr">
         <is>
-          <t>請考慮對所有服務使用標記進行成本分配</t>
+          <t>考慮使用標記到所有服務進行成本分配</t>
         </is>
       </c>
       <c r="D40" s="21" t="n"/>
@@ -2478,7 +2478,7 @@
       </c>
       <c r="C41" s="21" t="inlineStr">
         <is>
-          <t>考慮使用預訂自動化來跟蹤和及時回應更改</t>
+          <t>考慮預訂自動化來跟蹤變化並及時做出反應</t>
         </is>
       </c>
       <c r="D41" s="21" t="n"/>
@@ -2525,7 +2525,7 @@
       </c>
       <c r="D42" s="21" t="inlineStr">
         <is>
-          <t>通過在成本分析系統中搜索測量儀類別許可證進行檢查</t>
+          <t>通過在成本分析系統中搜索計量類別許可證進行檢查</t>
         </is>
       </c>
       <c r="E42" s="21" t="n"/>
@@ -2566,7 +2566,7 @@
       </c>
       <c r="C43" s="21" t="inlineStr">
         <is>
-          <t>如果您已經擁有許可證，也可以將其置於 AHUB 下 https://learn.microsoft.com/azure/virtual-machines/linux/azure-hybrid-benefit-linux?tabs=rhelpayg%2Crhelbyos%2CrhelEnablebyos%2Crhelcompliance</t>
+          <t>如果您已經擁有許可證，也可以將其置於 AHUB https://learn.microsoft.com/azure/virtual-machines/linux/azure-hybrid-benefit-linux?tabs=rhelpayg%2Crhelbyos%2CrhelEnablebyos%2Crhelcompliance</t>
         </is>
       </c>
       <c r="D43" s="21" t="n"/>
@@ -2650,7 +2650,7 @@
       </c>
       <c r="C45" s="21" t="inlineStr">
         <is>
-          <t>使用靈活性選項整合預留的 VM 系列（不超過 4-5 個系列）</t>
+          <t>使用靈活性選項（不超過 4-5 個系列）整合保留的 VM 系列</t>
         </is>
       </c>
       <c r="D45" s="21" t="n"/>
@@ -2696,7 +2696,7 @@
       </c>
       <c r="C46" s="21" t="inlineStr">
         <is>
-          <t>利用 Azure 預留實例：此功能允許將 VM 預留 1 年或 3 年，與 PAYG 價格相比，可節省大量成本。</t>
+          <t>利用 Azure 預留實例：此功能允許將 VM 預留 1 年或 3 年，與 PAYG 價格相比，可顯著節省成本。</t>
         </is>
       </c>
       <c r="D46" s="21" t="n"/>
@@ -2780,7 +2780,7 @@
       </c>
       <c r="C48" s="21" t="inlineStr">
         <is>
-          <t>為動態性較低且變化不大的所有工作負載規劃 Azure 預留</t>
+          <t>為所有動態性較低且變化不大的工作負載規劃 Azure 預留</t>
         </is>
       </c>
       <c r="D48" s="21" t="n"/>
@@ -2821,7 +2821,7 @@
       </c>
       <c r="C49" s="21" t="inlineStr">
         <is>
-          <t>只能保留較大的磁碟 =&gt;1TiB -</t>
+          <t>只能保留較大的磁碟 =&gt; 1 TiB -</t>
         </is>
       </c>
       <c r="D49" s="21" t="n"/>
@@ -2862,7 +2862,7 @@
       </c>
       <c r="C50" s="21" t="inlineStr">
         <is>
-          <t>適當調整大小優化后</t>
+          <t>調整大小優化后</t>
         </is>
       </c>
       <c r="D50" s="21" t="n"/>
@@ -2946,7 +2946,7 @@
       </c>
       <c r="C52" s="21" t="inlineStr">
         <is>
-          <t>VM + 許可證部分折扣 （ahub+3YRI） 約為 70% 的折扣</t>
+          <t>虛擬機 + 許可證部分折扣 （ahub + 3YRI） 約為 70% 的折扣</t>
         </is>
       </c>
       <c r="D52" s="21" t="n"/>
@@ -2988,7 +2988,7 @@
       </c>
       <c r="C53" s="21" t="inlineStr">
         <is>
-          <t>請確保 Azure 預留和節省計畫的利用率接近 100%，或進行必要的更改以達到該利用率。</t>
+          <t>請確保 Azure 預留和節省計劃接近 100% 的利用率，或進行必要的更改以達到該比率。</t>
         </is>
       </c>
       <c r="D53" s="21" t="n"/>
@@ -3029,7 +3029,7 @@
       </c>
       <c r="C54" s="21" t="inlineStr">
         <is>
-          <t>確保您的預留使用率接近 100%。如果沒有，請強制執行允許的 SKU 策略或交換預留</t>
+          <t>確保您的預訂使用率接近 100%。如果沒有，請強制執行允許的 SKU 策略或交換預留</t>
         </is>
       </c>
       <c r="D54" s="21" t="n"/>
@@ -3061,7 +3061,7 @@
     <row r="55" ht="16.5" customHeight="1">
       <c r="A55" s="21" t="inlineStr">
         <is>
-          <t>合理調整尺寸</t>
+          <t>調整大小</t>
         </is>
       </c>
       <c r="B55" s="21" t="inlineStr">
@@ -3071,7 +3071,7 @@
       </c>
       <c r="C55" s="21" t="inlineStr">
         <is>
-          <t>在可能的情況下，規劃和實施生產服務的開/關策略</t>
+          <t>在可能的情況下，規劃並強制執行生產服務的開/關策略</t>
         </is>
       </c>
       <c r="D55" s="21" t="n"/>
@@ -3102,7 +3102,7 @@
     <row r="56" ht="16.5" customHeight="1">
       <c r="A56" s="21" t="inlineStr">
         <is>
-          <t>合理調整尺寸</t>
+          <t>調整大小</t>
         </is>
       </c>
       <c r="B56" s="21" t="inlineStr">
@@ -3112,7 +3112,7 @@
       </c>
       <c r="C56" s="21" t="inlineStr">
         <is>
-          <t>在可能的情況下，規劃和實施具有自動關閉非生產服務的按需策略</t>
+          <t>在可能的情況下，規劃並強制實施具有自動關閉非生產服務的按需策略</t>
         </is>
       </c>
       <c r="D56" s="21" t="n"/>
@@ -3143,7 +3143,7 @@
     <row r="57" ht="16.5" customHeight="1">
       <c r="A57" s="21" t="inlineStr">
         <is>
-          <t>合理調整尺寸</t>
+          <t>調整大小</t>
         </is>
       </c>
       <c r="B57" s="21" t="inlineStr">
@@ -3153,7 +3153,7 @@
       </c>
       <c r="C57" s="21" t="inlineStr">
         <is>
-          <t>考慮使用 VMSS 來滿足需求，而不是扁平化尺寸</t>
+          <t>考慮使用 VMSS 來滿足需求，而不是按比例調整</t>
         </is>
       </c>
       <c r="D57" s="21" t="n"/>
@@ -3184,7 +3184,7 @@
     <row r="58" ht="16.5" customHeight="1">
       <c r="A58" s="21" t="inlineStr">
         <is>
-          <t>合理調整尺寸</t>
+          <t>調整大小</t>
         </is>
       </c>
       <c r="B58" s="21" t="inlineStr">
@@ -3194,7 +3194,7 @@
       </c>
       <c r="C58" s="21" t="inlineStr">
         <is>
-          <t>使用 AKS 自動縮放程式來符合群集使用方式（確保 Pod 要求與縮放程式符合）</t>
+          <t>使用 AKS 自動縮放程式符合群集使用方式（確保 Pod 要求與縮放程式符合）</t>
         </is>
       </c>
       <c r="D58" s="21" t="n"/>
@@ -3225,7 +3225,7 @@
     <row r="59" ht="16.5" customHeight="1">
       <c r="A59" s="21" t="inlineStr">
         <is>
-          <t>合理調整尺寸</t>
+          <t>調整大小</t>
         </is>
       </c>
       <c r="B59" s="21" t="inlineStr">
@@ -3235,7 +3235,7 @@
       </c>
       <c r="C59" s="21" t="inlineStr">
         <is>
-          <t>根據平均使用方式調整 PaaS 服務的大小，並通過自動或手動擴展來適應峰值</t>
+          <t>根據平均使用方式調整 PaaS 服務的規模，並通過自動或手動擴展來適應峰值</t>
         </is>
       </c>
       <c r="D59" s="21" t="n"/>
@@ -3266,7 +3266,7 @@
     <row r="60" ht="16.5" customHeight="1">
       <c r="A60" s="21" t="inlineStr">
         <is>
-          <t>合理調整尺寸</t>
+          <t>調整大小</t>
         </is>
       </c>
       <c r="B60" s="21" t="inlineStr">
@@ -3307,7 +3307,7 @@
     <row r="61" ht="16.5" customHeight="1">
       <c r="A61" s="21" t="inlineStr">
         <is>
-          <t>合理調整尺寸</t>
+          <t>調整大小</t>
         </is>
       </c>
       <c r="B61" s="21" t="inlineStr">
@@ -3317,7 +3317,7 @@
       </c>
       <c r="C61" s="21" t="inlineStr">
         <is>
-          <t>考慮在應用程式中實現服務重新縮放邏輯</t>
+          <t>請考慮在應用程式中實現服務重新縮放邏輯</t>
         </is>
       </c>
       <c r="D61" s="21" t="n"/>
@@ -3349,7 +3349,7 @@
     <row r="62" ht="16.5" customHeight="1">
       <c r="A62" s="21" t="inlineStr">
         <is>
-          <t>合理調整尺寸</t>
+          <t>調整大小</t>
         </is>
       </c>
       <c r="B62" s="21" t="inlineStr">
@@ -3395,17 +3395,17 @@
     <row r="63" ht="16.5" customHeight="1">
       <c r="A63" s="21" t="inlineStr">
         <is>
-          <t>合理調整尺寸</t>
+          <t>調整大小</t>
         </is>
       </c>
       <c r="B63" s="21" t="inlineStr">
         <is>
-          <t>數據磚</t>
+          <t>Databricks 數據磚塊</t>
         </is>
       </c>
       <c r="C63" s="21" t="inlineStr">
         <is>
-          <t>考慮盡可能使用具有回退功能的現成 VM 考慮自動終止群集 https://learn.microsoft.com/azure/databricks/clusters/cluster-config-best-practices#automatic-termination</t>
+          <t>請考慮盡可能使用帶回退功能的現成 VM。考慮群集的自動終止。</t>
         </is>
       </c>
       <c r="D63" s="21" t="n"/>
@@ -3418,14 +3418,10 @@
       <c r="G63" s="21" t="n"/>
       <c r="H63" s="15" t="inlineStr">
         <is>
-          <t>https://learn.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
-        </is>
-      </c>
-      <c r="I63" s="15" t="inlineStr">
-        <is>
-          <t>https://andrewmatveychuk.com/how-to-audit-azure-hybrid-benefit-usage-with-azure-workbooks/</t>
-        </is>
-      </c>
+          <t>https://learn.microsoft.com/azure/databricks/clusters/cluster-config-best-practices#automatic-termination</t>
+        </is>
+      </c>
+      <c r="I63" s="15" t="n"/>
       <c r="J63" s="22" t="n"/>
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="25" t="inlineStr">
@@ -3441,7 +3437,7 @@
     <row r="64" ht="16.5" customHeight="1">
       <c r="A64" s="21" t="inlineStr">
         <is>
-          <t>合理調整尺寸</t>
+          <t>調整大小</t>
         </is>
       </c>
       <c r="B64" s="21" t="inlineStr">
@@ -3451,7 +3447,7 @@
       </c>
       <c r="C64" s="21" t="inlineStr">
         <is>
-          <t>函數 - 重用連接</t>
+          <t>功能 - 重用連接</t>
         </is>
       </c>
       <c r="D64" s="21" t="n"/>
@@ -3487,7 +3483,7 @@
     <row r="65" ht="16.5" customHeight="1">
       <c r="A65" s="21" t="inlineStr">
         <is>
-          <t>合理調整尺寸</t>
+          <t>調整大小</t>
         </is>
       </c>
       <c r="B65" s="21" t="inlineStr">
@@ -3497,7 +3493,7 @@
       </c>
       <c r="C65" s="21" t="inlineStr">
         <is>
-          <t>functions - 本地緩存數據</t>
+          <t>函數 - 本地快取資料</t>
         </is>
       </c>
       <c r="D65" s="21" t="n"/>
@@ -3533,7 +3529,7 @@
     <row r="66" ht="16.5" customHeight="1">
       <c r="A66" s="21" t="inlineStr">
         <is>
-          <t>合理調整尺寸</t>
+          <t>調整大小</t>
         </is>
       </c>
       <c r="B66" s="21" t="inlineStr">
@@ -3543,7 +3539,7 @@
       </c>
       <c r="C66" s="21" t="inlineStr">
         <is>
-          <t>functions - 冷啟動 - 使用“從包運行”功能。這樣，代碼將下載為單個 zip 檔。例如，這可以對 Javascript 函數進行重大改進，這些函數具有許多節點模組。使用特定於語言的工具來減小包大小，例如，搖樹 Javascript 應用程式。</t>
+          <t>函數 - 冷啟動 - 使用“從包運行”功能。這樣，代碼將下載為單個 zip 檔。例如，這可以顯著改進具有大量節點模組的 Javascript 函數。使用特定於語言的工具來減小包大小，例如，搖樹 Javascript 應用程式。</t>
         </is>
       </c>
       <c r="D66" s="21" t="n"/>
@@ -3579,7 +3575,7 @@
     <row r="67" ht="16.5" customHeight="1">
       <c r="A67" s="21" t="inlineStr">
         <is>
-          <t>合理調整尺寸</t>
+          <t>調整大小</t>
         </is>
       </c>
       <c r="B67" s="21" t="inlineStr">
@@ -3625,7 +3621,7 @@
     <row r="68" ht="16.5" customHeight="1">
       <c r="A68" s="21" t="inlineStr">
         <is>
-          <t>合理調整尺寸</t>
+          <t>調整大小</t>
         </is>
       </c>
       <c r="B68" s="21" t="inlineStr">
@@ -3635,7 +3631,7 @@
       </c>
       <c r="C68" s="21" t="inlineStr">
         <is>
-          <t>將自動縮放與不同函數一起使用時，可能會有一個函數驅動所有資源的所有自動縮放 - 請考慮將其移動到單獨的消耗計劃（並考慮更高的 CPU 計劃）</t>
+          <t>使用具有不同功能的自動縮放時，可能會有一個資源驅動所有資源的所有自動縮放 - 請考慮將其移動到單獨的消耗計劃（並考慮更高的 CPU 計劃）</t>
         </is>
       </c>
       <c r="D68" s="21" t="n"/>
@@ -3667,7 +3663,7 @@
     <row r="69" ht="16.5" customHeight="1">
       <c r="A69" s="21" t="inlineStr">
         <is>
-          <t>合理調整尺寸</t>
+          <t>調整大小</t>
         </is>
       </c>
       <c r="B69" s="21" t="inlineStr">
@@ -3677,7 +3673,7 @@
       </c>
       <c r="C69" s="21" t="inlineStr">
         <is>
-          <t>給定計劃中的函數應用都是一起縮放的，因此縮放的任何問題都可能影響計劃中的所有應用。</t>
+          <t>給定計劃中的函數應用都縮放在一起，因此縮放的任何問題都可能影響計劃中的所有應用。</t>
         </is>
       </c>
       <c r="D69" s="21" t="n"/>
@@ -3709,7 +3705,7 @@
     <row r="70" ht="16.5" customHeight="1">
       <c r="A70" s="21" t="inlineStr">
         <is>
-          <t>合理調整尺寸</t>
+          <t>調整大小</t>
         </is>
       </c>
       <c r="B70" s="21" t="inlineStr">
@@ -3719,7 +3715,7 @@
       </c>
       <c r="C70" s="21" t="inlineStr">
         <is>
-          <t>我是否為「等待時間」付費？這個問題通常在執行異步操作並等待結果的 C# 函數的上下文中提出，例如 await Task.Delay（1000） 或 await client。GetAsync（'http：//google.com'）。答案是肯定的 - GB 秒計算基於函數的開始和結束時間以及該時間段內的記憶體使用方式。計算中不考慮在這段時間內實際發生的CPU活動。此規則的一個例外是，如果您使用的是持久函數。您無需為在業務流程協調程式函數中等待所花費的時間付費。在可能的情況下應用需求塑造技術（開發環境？）https://github.com/Azure-Samples/functions-csharp-premium-scaler</t>
+          <t>我需要為「等待時間」付費嗎？這個問題通常是在執行異步操作並等待結果的 C# 函數的上下文中提出的，例如 await Task.Delay（1000） 或 await client。GetAsync（'http：//google.com'）。答案是肯定的 - GB 秒計算基於函數的開始和結束時間以及該時間段內的記憶體使用方式。在這段時間內實際發生的CPU活動未計入計算。此規則的一個例外是，如果使用的是持久函數。您無需為在業務流程協調程式函數中等待所花費的時間付費。在可能的情況下應用需求塑造技術（開發環境？）https://github.com/Azure-Samples/functions-csharp-premium-scaler</t>
         </is>
       </c>
       <c r="D70" s="21" t="n"/>
@@ -3751,7 +3747,7 @@
     <row r="71" ht="16.5" customHeight="1">
       <c r="A71" s="21" t="inlineStr">
         <is>
-          <t>合理調整尺寸</t>
+          <t>調整大小</t>
         </is>
       </c>
       <c r="B71" s="21" t="inlineStr">
@@ -3761,7 +3757,7 @@
       </c>
       <c r="C71" s="21" t="inlineStr">
         <is>
-          <t>根據網路成本評估網路拓撲，並在適用的情況下減少出口和對等互連數據</t>
+          <t>根據網路成本評估網路拓撲，並在適用的情況下減少出口和對等數據</t>
         </is>
       </c>
       <c r="D71" s="21" t="n"/>
@@ -3793,7 +3789,7 @@
     <row r="72" ht="16.5" customHeight="1">
       <c r="A72" s="21" t="inlineStr">
         <is>
-          <t>合理調整尺寸</t>
+          <t>調整大小</t>
         </is>
       </c>
       <c r="B72" s="21" t="inlineStr">
@@ -3835,7 +3831,7 @@
     <row r="73" ht="16.5" customHeight="1">
       <c r="A73" s="21" t="inlineStr">
         <is>
-          <t>合理調整尺寸</t>
+          <t>調整大小</t>
         </is>
       </c>
       <c r="B73" s="21" t="inlineStr">
@@ -3845,7 +3841,7 @@
       </c>
       <c r="C73" s="21" t="inlineStr">
         <is>
-          <t>Frontdoor - 路由到返回 nothing 的內容設置函數、函數代理，或在 WebApp 中添加返回 200 （OK） 且不發送任何內容或發送最少內容的路由。這樣做的好處是，當它被調用時，您將能夠註銷。</t>
+          <t>Frontdoor - 路由到不返回任何內容的內容。設置函數、函數代理，或在 WebApp 中添加返回 200 （OK） 且不發送內容或發送最少內容的路由。這樣做的好處是您可以在調用時註銷。</t>
         </is>
       </c>
       <c r="D73" s="21" t="n"/>
@@ -3877,17 +3873,17 @@
     <row r="74" ht="16.5" customHeight="1">
       <c r="A74" s="21" t="inlineStr">
         <is>
-          <t>合理調整尺寸</t>
+          <t>調整大小</t>
         </is>
       </c>
       <c r="B74" s="21" t="inlineStr">
         <is>
-          <t>PaaS的</t>
+          <t>PaaS 的</t>
         </is>
       </c>
       <c r="C74" s="21" t="inlineStr">
         <is>
-          <t>考慮在適用於所有非生產環境的情況下使用免費套餐</t>
+          <t>考慮使用適用於所有非生產環境的免費套餐</t>
         </is>
       </c>
       <c r="D74" s="21" t="n"/>
@@ -3919,7 +3915,7 @@
     <row r="75" ht="16.5" customHeight="1">
       <c r="A75" s="21" t="inlineStr">
         <is>
-          <t>合理調整尺寸</t>
+          <t>調整大小</t>
         </is>
       </c>
       <c r="B75" s="21" t="inlineStr">
@@ -3929,7 +3925,7 @@
       </c>
       <c r="C75" s="21" t="inlineStr">
         <is>
-          <t>將無伺服器模式用於峰值有助於降低成本</t>
+          <t>使用無伺服器模式進行峰值有助於降低成本</t>
         </is>
       </c>
       <c r="D75" s="21" t="n"/>
@@ -3961,7 +3957,7 @@
     <row r="76" ht="16.5" customHeight="1">
       <c r="A76" s="21" t="inlineStr">
         <is>
-          <t>合理調整尺寸</t>
+          <t>調整大小</t>
         </is>
       </c>
       <c r="B76" s="21" t="inlineStr">
@@ -3971,7 +3967,7 @@
       </c>
       <c r="C76" s="21" t="inlineStr">
         <is>
-          <t>考慮對使用較少的數據進行歸檔層</t>
+          <t>考慮為使用較少的數據存檔層</t>
         </is>
       </c>
       <c r="D76" s="21" t="n"/>
@@ -4003,7 +3999,7 @@
     <row r="77" ht="16.5" customHeight="1">
       <c r="A77" s="21" t="inlineStr">
         <is>
-          <t>合理調整尺寸</t>
+          <t>調整大小</t>
         </is>
       </c>
       <c r="B77" s="21" t="inlineStr">
@@ -4045,7 +4041,7 @@
     <row r="78" ht="16.5" customHeight="1">
       <c r="A78" s="21" t="inlineStr">
         <is>
-          <t>合理調整尺寸</t>
+          <t>調整大小</t>
         </is>
       </c>
       <c r="B78" s="21" t="inlineStr">
@@ -4055,7 +4051,7 @@
       </c>
       <c r="C78" s="21" t="inlineStr">
         <is>
-          <t>考慮盡可能使用標準 SSD，而不是 Premium 或 Ultra</t>
+          <t>盡可能考慮使用標準 SSD，而不是 Premium 或 Ultra</t>
         </is>
       </c>
       <c r="D78" s="21" t="n"/>
@@ -4087,7 +4083,7 @@
     <row r="79" ht="16.5" customHeight="1">
       <c r="A79" s="21" t="inlineStr">
         <is>
-          <t>合理調整尺寸</t>
+          <t>調整大小</t>
         </is>
       </c>
       <c r="B79" s="21" t="inlineStr">
@@ -4097,7 +4093,7 @@
       </c>
       <c r="C79" s="21" t="inlineStr">
         <is>
-          <t>對於存儲帳戶，請確保所選層不會累加事務費用（移動到下一層可能更便宜）</t>
+          <t>對於存儲帳戶，請確保所選層不會增加事務費用（移動到下一層可能會更便宜）</t>
         </is>
       </c>
       <c r="D79" s="21" t="n"/>
@@ -4129,7 +4125,7 @@
     <row r="80" ht="16.5" customHeight="1">
       <c r="A80" s="21" t="inlineStr">
         <is>
-          <t>合理調整尺寸</t>
+          <t>調整大小</t>
         </is>
       </c>
       <c r="B80" s="21" t="inlineStr">
@@ -4171,7 +4167,7 @@
     <row r="81" ht="16.5" customHeight="1">
       <c r="A81" s="21" t="inlineStr">
         <is>
-          <t>合理調整尺寸</t>
+          <t>調整大小</t>
         </is>
       </c>
       <c r="B81" s="21" t="inlineStr">
@@ -4181,7 +4177,7 @@
       </c>
       <c r="C81" s="21" t="inlineStr">
         <is>
-          <t>存儲帳戶：檢查熱層和/或 GRS 是否必要</t>
+          <t>存儲帳戶：檢查熱層和/或 GRS 必填</t>
         </is>
       </c>
       <c r="D81" s="21" t="n"/>
@@ -4213,7 +4209,7 @@
     <row r="82" ht="16.5" customHeight="1">
       <c r="A82" s="21" t="inlineStr">
         <is>
-          <t>合理調整尺寸</t>
+          <t>調整大小</t>
         </is>
       </c>
       <c r="B82" s="21" t="inlineStr">
@@ -4223,7 +4219,7 @@
       </c>
       <c r="C82" s="21" t="inlineStr">
         <is>
-          <t>磁碟 - 驗證所有位置的高級 SSD 磁碟的使用：例如，非生產可以交換到標準 SSD 或按需高級 SSD</t>
+          <t>磁碟 - 驗證高級 SSD 磁碟在任何地方的使用方式：例如，非生產磁碟可以交換到標準 SSD 或按需高級 SSD</t>
         </is>
       </c>
       <c r="D82" s="21" t="n"/>
@@ -4255,7 +4251,7 @@
     <row r="83" ht="15.75" customHeight="1">
       <c r="A83" s="21" t="inlineStr">
         <is>
-          <t>合理調整尺寸</t>
+          <t>調整大小</t>
         </is>
       </c>
       <c r="B83" s="21" t="inlineStr">
@@ -4265,7 +4261,7 @@
       </c>
       <c r="C83" s="21" t="inlineStr">
         <is>
-          <t>創建預算以管理成本並創建警報，以自動通知利益相關者支出異常和超支風險。</t>
+          <t>創建預算以管理成本並創建警報，自動通知利益相關者支出異常和超支風險。</t>
         </is>
       </c>
       <c r="D83" s="21" t="n"/>
@@ -4297,7 +4293,7 @@
     <row r="84" ht="16.5" customHeight="1">
       <c r="A84" s="21" t="inlineStr">
         <is>
-          <t>合理調整尺寸</t>
+          <t>調整大小</t>
         </is>
       </c>
       <c r="B84" s="21" t="inlineStr">
@@ -4307,7 +4303,7 @@
       </c>
       <c r="C84" s="21" t="inlineStr">
         <is>
-          <t>將成本數據匯出到存儲帳戶，以便進行其他數據分析。</t>
+          <t>將成本數據匯出到存儲帳戶以進行其他數據分析。</t>
         </is>
       </c>
       <c r="D84" s="21" t="n"/>
@@ -4339,7 +4335,7 @@
     <row r="85" ht="16.5" customHeight="1">
       <c r="A85" s="21" t="inlineStr">
         <is>
-          <t>合理調整尺寸</t>
+          <t>調整大小</t>
         </is>
       </c>
       <c r="B85" s="21" t="inlineStr">
@@ -4381,7 +4377,7 @@
     <row r="86" ht="16.5" customHeight="1">
       <c r="A86" s="21" t="inlineStr">
         <is>
-          <t>合理調整尺寸</t>
+          <t>調整大小</t>
         </is>
       </c>
       <c r="B86" s="21" t="inlineStr">
@@ -4423,7 +4419,7 @@
     <row r="87" ht="16.5" customHeight="1">
       <c r="A87" s="21" t="inlineStr">
         <is>
-          <t>合理調整尺寸</t>
+          <t>調整大小</t>
         </is>
       </c>
       <c r="B87" s="21" t="inlineStr">
@@ -4433,7 +4429,7 @@
       </c>
       <c r="C87" s="21" t="inlineStr">
         <is>
-          <t>創建多個大小各異的 Apache Spark 池定義。</t>
+          <t>創建多個不同大小的 Apache Spark 池定義。</t>
         </is>
       </c>
       <c r="D87" s="21" t="n"/>
@@ -4465,7 +4461,7 @@
     <row r="88" ht="16.5" customHeight="1">
       <c r="A88" s="21" t="inlineStr">
         <is>
-          <t>合理調整尺寸</t>
+          <t>調整大小</t>
         </is>
       </c>
       <c r="B88" s="21" t="inlineStr">
@@ -4475,7 +4471,7 @@
       </c>
       <c r="C88" s="21" t="inlineStr">
         <is>
-          <t>使用預購計劃購買為期一年的 Azure Synapse 提交單位 （SCU），以節省 Azure Synapse Analytics 成本。</t>
+          <t>使用預購計劃購買為期一年的 Azure Synapse 提交單元 （SCU），以節省 Azure Synapse Analytics 成本。</t>
         </is>
       </c>
       <c r="D88" s="21" t="n"/>
@@ -4511,7 +4507,7 @@
     <row r="89" ht="16.5" customHeight="1">
       <c r="A89" s="21" t="inlineStr">
         <is>
-          <t>合理調整尺寸</t>
+          <t>調整大小</t>
         </is>
       </c>
       <c r="B89" s="21" t="inlineStr">
@@ -4521,7 +4517,7 @@
       </c>
       <c r="C89" s="21" t="inlineStr">
         <is>
-          <t>將SPOT VM用於可中斷作業：這些 VM 可以以折扣價競標和購買，為非關鍵工作負載提供經濟高效的解決方案。</t>
+          <t>將現成 VM 用於可中斷作業：這些 VM 可以以折扣價競標和購買，為非關鍵工作負載提供經濟高效的解決方案。</t>
         </is>
       </c>
       <c r="D89" s="21" t="n"/>
@@ -4557,7 +4553,7 @@
     <row r="90" ht="16.5" customHeight="1">
       <c r="A90" s="21" t="inlineStr">
         <is>
-          <t>合理調整尺寸</t>
+          <t>調整大小</t>
         </is>
       </c>
       <c r="B90" s="21" t="inlineStr">
@@ -4567,7 +4563,7 @@
       </c>
       <c r="C90" s="21" t="inlineStr">
         <is>
-          <t>調整所有 VM 的大小</t>
+          <t>合理調整所有 VM 的大小</t>
         </is>
       </c>
       <c r="D90" s="21" t="n"/>
@@ -4599,7 +4595,7 @@
     <row r="91" ht="16.5" customHeight="1">
       <c r="A91" s="21" t="inlineStr">
         <is>
-          <t>合理調整尺寸</t>
+          <t>調整大小</t>
         </is>
       </c>
       <c r="B91" s="21" t="inlineStr">
@@ -4609,7 +4605,7 @@
       </c>
       <c r="C91" s="21" t="inlineStr">
         <is>
-          <t>使用規範化大小和最新大小交換 VM</t>
+          <t>將 VM 大小與規範化大小和最新大小交換</t>
         </is>
       </c>
       <c r="D91" s="21" t="n"/>
@@ -4645,7 +4641,7 @@
     <row r="92" ht="16.5" customHeight="1">
       <c r="A92" s="21" t="inlineStr">
         <is>
-          <t>合理調整尺寸</t>
+          <t>調整大小</t>
         </is>
       </c>
       <c r="B92" s="21" t="inlineStr">
@@ -4655,7 +4651,7 @@
       </c>
       <c r="C92" s="21" t="inlineStr">
         <is>
-          <t>適當調整 VM 大小 - 從監視低於 5% 的使用率開始，然後工作到 40%</t>
+          <t>調整 VM 大小 - 從低於 5% 的監視使用率開始，然後工作到 40%</t>
         </is>
       </c>
       <c r="D92" s="21" t="n"/>
@@ -4691,7 +4687,7 @@
     <row r="93" ht="16.5" customHeight="1">
       <c r="A93" s="21" t="inlineStr">
         <is>
-          <t>合理調整尺寸</t>
+          <t>調整大小</t>
         </is>
       </c>
       <c r="B93" s="21" t="inlineStr">
@@ -8169,7 +8165,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>資料庫/應用調優</t>
+          <t>DB/App 調優</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -8201,7 +8197,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>此檢查已經過驗證，沒有與之關聯的其他操作項</t>
+          <t>此檢查已通過驗證，並且沒有與之關聯的進一步操作項</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -8223,7 +8219,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>建議已理解，但當前要求不需要</t>
+          <t>建議已理解，但當前需求不需要</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -8240,7 +8236,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>合理調整尺寸</t>
+          <t>調整大小</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">

--- a/spreadsheet/macrofree/cost_checklist.zh-Hant.xlsx
+++ b/spreadsheet/macrofree/cost_checklist.zh-Hant.xlsx
@@ -1073,7 +1073,11 @@
         </is>
       </c>
       <c r="D8" s="21" t="n"/>
-      <c r="E8" s="21" t="n"/>
+      <c r="E8" s="21" t="inlineStr">
+        <is>
+          <t>中等</t>
+        </is>
+      </c>
       <c r="F8" t="inlineStr">
         <is>
           <t>未驗證</t>
@@ -1119,7 +1123,11 @@
         </is>
       </c>
       <c r="D9" s="21" t="n"/>
-      <c r="E9" s="21" t="n"/>
+      <c r="E9" s="21" t="inlineStr">
+        <is>
+          <t>中等</t>
+        </is>
+      </c>
       <c r="F9" t="inlineStr">
         <is>
           <t>未驗證</t>
@@ -1161,7 +1169,11 @@
         </is>
       </c>
       <c r="D10" s="21" t="n"/>
-      <c r="E10" s="21" t="n"/>
+      <c r="E10" s="21" t="inlineStr">
+        <is>
+          <t>中等</t>
+        </is>
+      </c>
       <c r="F10" t="inlineStr">
         <is>
           <t>未驗證</t>
@@ -1199,11 +1211,15 @@
       </c>
       <c r="C11" s="21" t="inlineStr">
         <is>
-          <t>考慮暫停和停止技術（在 x 天后暫停服務，在 2 次後停止，在 3 次後刪除/解除分配）</t>
+          <t>考慮推遲和停止技術（在 x 天后推遲服務，在 2 倍後停止，在 3 倍後刪除/解除分配）</t>
         </is>
       </c>
       <c r="D11" s="21" t="n"/>
-      <c r="E11" s="21" t="n"/>
+      <c r="E11" s="21" t="inlineStr">
+        <is>
+          <t>中等</t>
+        </is>
+      </c>
       <c r="F11" t="inlineStr">
         <is>
           <t>未驗證</t>
@@ -1245,7 +1261,11 @@
         </is>
       </c>
       <c r="D12" s="21" t="n"/>
-      <c r="E12" s="21" t="n"/>
+      <c r="E12" s="21" t="inlineStr">
+        <is>
+          <t>中等</t>
+        </is>
+      </c>
       <c r="F12" t="inlineStr">
         <is>
           <t>未驗證</t>
@@ -1283,11 +1303,15 @@
       </c>
       <c r="C13" s="21" t="inlineStr">
         <is>
-          <t>考慮在網站恢復存儲和非任務關鍵型應用程式的備份之間取得良好的平衡</t>
+          <t>考慮在 Site Recovery 儲存和非任務關鍵型應用程式的備份之間取得良好的平衡</t>
         </is>
       </c>
       <c r="D13" s="21" t="n"/>
-      <c r="E13" s="21" t="n"/>
+      <c r="E13" s="21" t="inlineStr">
+        <is>
+          <t>中等</t>
+        </is>
+      </c>
       <c r="F13" t="inlineStr">
         <is>
           <t>未驗證</t>
@@ -1320,16 +1344,20 @@
       </c>
       <c r="B14" s="21" t="inlineStr">
         <is>
-          <t>工作區的Log Analytics保留</t>
+          <t>工作區的Log Analytics保留期</t>
         </is>
       </c>
       <c r="C14" s="21" t="inlineStr">
         <is>
-          <t>檢查 40 個不同 Log Analytics 工作區之間的支出和節省機會 - 對非生產工作區使用不同的保留和數據收集 - 創建每日上限以實現意識和層大小調整 - 如果確實設置了每日上限，除了在達到上限時創建警報外，請確保還創建警報規則，以便在達到某個百分比（例如 90%）時收到通知。- 如果可能，考慮工作空間改造 - https://learn.microsoft.com/azure/azure-monitor/essentials/data-collection-transformations#workspace-transformation-dcr</t>
+          <t>檢查 40 個不同的日誌分析工作區中的支出和節省機會 - 對非生產工作區使用不同的保留和數據收集 - 創建每日上限以提高意識和層級大小 - 如果您確實設置了每日上限，除了在達到上限時創建警報外，請確保還創建了一個警報規則，以便在達到某個百分比（例如 90%）時收到通知。- 如果可能，請考慮工作區轉換 - https://learn.microsoft.com/azure/azure-monitor/essentials/data-collection-transformations#workspace-transformation-dcr</t>
         </is>
       </c>
       <c r="D14" s="21" t="n"/>
-      <c r="E14" s="21" t="n"/>
+      <c r="E14" s="21" t="inlineStr">
+        <is>
+          <t>中等</t>
+        </is>
+      </c>
       <c r="F14" t="inlineStr">
         <is>
           <t>未驗證</t>
@@ -1371,11 +1399,15 @@
       </c>
       <c r="C15" s="21" t="inlineStr">
         <is>
-          <t>強制執行清除日誌策略和自動化（如果需要，可以將記錄移至冷存儲）</t>
+          <t>清除紀錄策略和自動化（如果需要，可以將紀錄移動到冷存儲）</t>
         </is>
       </c>
       <c r="D15" s="21" t="n"/>
-      <c r="E15" s="21" t="n"/>
+      <c r="E15" s="21" t="inlineStr">
+        <is>
+          <t>中等</t>
+        </is>
+      </c>
       <c r="F15" t="inlineStr">
         <is>
           <t>未驗證</t>
@@ -1412,7 +1444,7 @@
       </c>
       <c r="B16" s="21" t="inlineStr">
         <is>
-          <t>運行孤立資源工作簿 - 刪除或暫停幽靈項</t>
+          <t>運行孤立資源工作簿 - 刪除或推遲虛影專案</t>
         </is>
       </c>
       <c r="C16" s="21" t="inlineStr">
@@ -1421,7 +1453,11 @@
         </is>
       </c>
       <c r="D16" s="21" t="n"/>
-      <c r="E16" s="21" t="n"/>
+      <c r="E16" s="21" t="inlineStr">
+        <is>
+          <t>中等</t>
+        </is>
+      </c>
       <c r="F16" t="inlineStr">
         <is>
           <t>未驗證</t>
@@ -1467,7 +1503,11 @@
         </is>
       </c>
       <c r="D17" s="21" t="n"/>
-      <c r="E17" s="21" t="n"/>
+      <c r="E17" s="21" t="inlineStr">
+        <is>
+          <t>中等</t>
+        </is>
+      </c>
       <c r="F17" t="inlineStr">
         <is>
           <t>未驗證</t>
@@ -1504,16 +1544,20 @@
       </c>
       <c r="B18" s="21" t="inlineStr">
         <is>
-          <t>已停止/解除分配的 VM：檢查磁碟</t>
+          <t>已停止/已解除分配的 VM：檢查磁碟</t>
         </is>
       </c>
       <c r="C18" s="21" t="inlineStr">
         <is>
-          <t>檢查磁碟是否確實需要，如果不是：刪除。如果需要，請尋找較低的儲存層或使用備份 -</t>
+          <t>檢查是否確實需要磁碟，如果不需要：delete。如果需要，請尋找較低的儲存層或使用備份 -</t>
         </is>
       </c>
       <c r="D18" s="21" t="n"/>
-      <c r="E18" s="21" t="n"/>
+      <c r="E18" s="21" t="inlineStr">
+        <is>
+          <t>中等</t>
+        </is>
+      </c>
       <c r="F18" t="inlineStr">
         <is>
           <t>未驗證</t>
@@ -1559,7 +1603,11 @@
         </is>
       </c>
       <c r="D19" s="21" t="n"/>
-      <c r="E19" s="21" t="n"/>
+      <c r="E19" s="21" t="inlineStr">
+        <is>
+          <t>中等</t>
+        </is>
+      </c>
       <c r="F19" t="inlineStr">
         <is>
           <t>未驗證</t>
@@ -1601,11 +1649,15 @@
       </c>
       <c r="C20" s="21" t="inlineStr">
         <is>
-          <t>對具有“按日期刪除”格式的臨時專案使用特定標籤 - 並自動執行每月清理</t>
+          <t>為「按 DATE 刪除」格式的臨時專案使用特定標籤 - 並自動每月清理</t>
         </is>
       </c>
       <c r="D20" s="21" t="n"/>
-      <c r="E20" s="21" t="n"/>
+      <c r="E20" s="21" t="inlineStr">
+        <is>
+          <t>中等</t>
+        </is>
+      </c>
       <c r="F20" t="inlineStr">
         <is>
           <t>未驗證</t>
@@ -1633,7 +1685,7 @@
     <row r="21" ht="16.5" customHeight="1">
       <c r="A21" s="21" t="inlineStr">
         <is>
-          <t>資料庫/應用調優</t>
+          <t>DB/App 調優</t>
         </is>
       </c>
       <c r="B21" s="21" t="inlineStr">
@@ -1643,11 +1695,15 @@
       </c>
       <c r="C21" s="21" t="inlineStr">
         <is>
-          <t>規劃資料庫優化，以縮小相關服務的規模（並提高性能）</t>
+          <t>規劃資料庫優化，以縮小相關服務的大小（並提高性能）</t>
         </is>
       </c>
       <c r="D21" s="21" t="n"/>
-      <c r="E21" s="21" t="n"/>
+      <c r="E21" s="21" t="inlineStr">
+        <is>
+          <t>中等</t>
+        </is>
+      </c>
       <c r="F21" t="inlineStr">
         <is>
           <t>未驗證</t>
@@ -1675,21 +1731,25 @@
     <row r="22" ht="16.5" customHeight="1">
       <c r="A22" s="21" t="inlineStr">
         <is>
-          <t>DB/APP調優</t>
+          <t>DB/APP 調優</t>
         </is>
       </c>
       <c r="B22" s="21" t="inlineStr">
         <is>
-          <t>應用現代化</t>
+          <t>應用程式現代化</t>
         </is>
       </c>
       <c r="C22" s="21" t="inlineStr">
         <is>
-          <t>將應用現代化為微服務架構將產生讓應用根據單個服務而不是整個堆疊進行擴展的效果</t>
+          <t>將應用程式現代化為微服務架構將產生讓應用程式根據單個服務而不是整個堆疊進行擴展的效果</t>
         </is>
       </c>
       <c r="D22" s="21" t="n"/>
-      <c r="E22" s="21" t="n"/>
+      <c r="E22" s="21" t="inlineStr">
+        <is>
+          <t>中等</t>
+        </is>
+      </c>
       <c r="F22" t="inlineStr">
         <is>
           <t>未驗證</t>
@@ -1717,7 +1777,7 @@
     <row r="23" ht="16.5" customHeight="1">
       <c r="A23" s="21" t="inlineStr">
         <is>
-          <t>DB/APP調優</t>
+          <t>DB/APP 調優</t>
         </is>
       </c>
       <c r="B23" s="21" t="inlineStr">
@@ -1727,11 +1787,15 @@
       </c>
       <c r="C23" s="21" t="inlineStr">
         <is>
-          <t>優化資料庫查詢將提高性能，並允許更好地調整存儲和 VM 的大小</t>
+          <t>優化 DB 查詢將提高性能，並允許更好地調整存儲和 VM 的大小</t>
         </is>
       </c>
       <c r="D23" s="21" t="n"/>
-      <c r="E23" s="21" t="n"/>
+      <c r="E23" s="21" t="inlineStr">
+        <is>
+          <t>中等</t>
+        </is>
+      </c>
       <c r="F23" t="inlineStr">
         <is>
           <t>未驗證</t>
@@ -1759,7 +1823,7 @@
     <row r="24" ht="16.5" customHeight="1">
       <c r="A24" s="21" t="inlineStr">
         <is>
-          <t>DB/APP調優</t>
+          <t>DB/APP 調優</t>
         </is>
       </c>
       <c r="B24" s="21" t="inlineStr">
@@ -1769,11 +1833,15 @@
       </c>
       <c r="C24" s="21" t="inlineStr">
         <is>
-          <t>在 PaaS 服務上使用需求調整將優化成本和性能</t>
+          <t>在 PaaS 服務上使用需求塑造將優化成本和性能</t>
         </is>
       </c>
       <c r="D24" s="21" t="n"/>
-      <c r="E24" s="21" t="n"/>
+      <c r="E24" s="21" t="inlineStr">
+        <is>
+          <t>中等</t>
+        </is>
+      </c>
       <c r="F24" t="inlineStr">
         <is>
           <t>未驗證</t>
@@ -1811,11 +1879,15 @@
       </c>
       <c r="C25" s="21" t="inlineStr">
         <is>
-          <t>從 Azure 顧問頁建議開始。</t>
+          <t>從 Azure 顧問頁面建議開始。</t>
         </is>
       </c>
       <c r="D25" s="21" t="n"/>
-      <c r="E25" s="21" t="n"/>
+      <c r="E25" s="21" t="inlineStr">
+        <is>
+          <t>中等</t>
+        </is>
+      </c>
       <c r="F25" t="inlineStr">
         <is>
           <t>未驗證</t>
@@ -1853,11 +1925,15 @@
       </c>
       <c r="C26" s="21" t="inlineStr">
         <is>
-          <t>確保 advisor 配置為適合 VM 大小調整</t>
+          <t>確保為 VM 大小調整配置了顧問</t>
         </is>
       </c>
       <c r="D26" s="21" t="n"/>
-      <c r="E26" s="21" t="n"/>
+      <c r="E26" s="21" t="inlineStr">
+        <is>
+          <t>中等</t>
+        </is>
+      </c>
       <c r="F26" t="inlineStr">
         <is>
           <t>未驗證</t>
@@ -1895,11 +1971,15 @@
       </c>
       <c r="C27" s="21" t="inlineStr">
         <is>
-          <t>請考慮實現 IaC 腳本或 DevOps 管道以匹配成本調控流程</t>
+          <t>考慮實施 IaC 腳本或 DevOps 管道以匹配成本治理流程</t>
         </is>
       </c>
       <c r="D27" s="21" t="n"/>
-      <c r="E27" s="21" t="n"/>
+      <c r="E27" s="21" t="inlineStr">
+        <is>
+          <t>中等</t>
+        </is>
+      </c>
       <c r="F27" t="inlineStr">
         <is>
           <t>未驗證</t>
@@ -1936,11 +2016,15 @@
       </c>
       <c r="C28" s="21" t="inlineStr">
         <is>
-          <t>為具有可變成本的應用程式設定成本警報（理想情況下適用於所有應用程式）</t>
+          <t>為具有可變成本的應用程式設定成本警報 （最好是針對所有應用程式）</t>
         </is>
       </c>
       <c r="D28" s="21" t="n"/>
-      <c r="E28" s="21" t="n"/>
+      <c r="E28" s="21" t="inlineStr">
+        <is>
+          <t>中等</t>
+        </is>
+      </c>
       <c r="F28" t="inlineStr">
         <is>
           <t>未驗證</t>
@@ -1977,11 +2061,15 @@
       </c>
       <c r="C29" s="21" t="inlineStr">
         <is>
-          <t>使用 Azure 自動化：自動執行重複性任務可説明你節省時間和資源，從而降低流程成本。</t>
+          <t>使用 Azure 自動化：自動執行重複性任務可以説明您節省時間和資源，從而降低流程成本。</t>
         </is>
       </c>
       <c r="D29" s="21" t="n"/>
-      <c r="E29" s="21" t="n"/>
+      <c r="E29" s="21" t="inlineStr">
+        <is>
+          <t>中等</t>
+        </is>
+      </c>
       <c r="F29" t="inlineStr">
         <is>
           <t>未驗證</t>
@@ -2018,11 +2106,15 @@
       </c>
       <c r="C30" s="21" t="inlineStr">
         <is>
-          <t>運行孤立資源工作簿</t>
+          <t>Run orphaned resources workbook （運行孤立資源工作簿）</t>
         </is>
       </c>
       <c r="D30" s="21" t="n"/>
-      <c r="E30" s="21" t="n"/>
+      <c r="E30" s="21" t="inlineStr">
+        <is>
+          <t>中等</t>
+        </is>
+      </c>
       <c r="F30" t="inlineStr">
         <is>
           <t>未驗證</t>
@@ -2059,11 +2151,15 @@
       </c>
       <c r="C31" s="21" t="inlineStr">
         <is>
-          <t>嘗試建立每月支出的基線和可接受的節約目標（現階段不會優化新服務）</t>
+          <t>嘗試根據基線建立每月支出的基線和可接受的儲蓄目標（新服務在此階段不會優化）</t>
         </is>
       </c>
       <c r="D31" s="21" t="n"/>
-      <c r="E31" s="21" t="n"/>
+      <c r="E31" s="21" t="inlineStr">
+        <is>
+          <t>中等</t>
+        </is>
+      </c>
       <c r="F31" t="inlineStr">
         <is>
           <t>未驗證</t>
@@ -2100,11 +2196,15 @@
       </c>
       <c r="C32" s="21" t="inlineStr">
         <is>
-          <t>使用將每個新資源標記為 #NEW 的策略建立成本優化基線</t>
+          <t>使用將每個新資源標記為 #NEW 的策略建立成本優化基準</t>
         </is>
       </c>
       <c r="D32" s="21" t="n"/>
-      <c r="E32" s="21" t="n"/>
+      <c r="E32" s="21" t="inlineStr">
+        <is>
+          <t>中等</t>
+        </is>
+      </c>
       <c r="F32" t="inlineStr">
         <is>
           <t>未驗證</t>
@@ -2142,11 +2242,15 @@
       </c>
       <c r="C33" s="21" t="inlineStr">
         <is>
-          <t>組織資源以最大限度地提高成本洞察力和問責制</t>
+          <t>組織資源以最大限度地提高成本洞察和問責制</t>
         </is>
       </c>
       <c r="D33" s="21" t="n"/>
-      <c r="E33" s="21" t="n"/>
+      <c r="E33" s="21" t="inlineStr">
+        <is>
+          <t>中等</t>
+        </is>
+      </c>
       <c r="F33" t="inlineStr">
         <is>
           <t>未驗證</t>
@@ -2188,7 +2292,11 @@
         </is>
       </c>
       <c r="D34" s="21" t="n"/>
-      <c r="E34" s="21" t="n"/>
+      <c r="E34" s="21" t="inlineStr">
+        <is>
+          <t>中等</t>
+        </is>
+      </c>
       <c r="F34" t="inlineStr">
         <is>
           <t>未驗證</t>
@@ -2226,11 +2334,15 @@
       </c>
       <c r="C35" s="21" t="inlineStr">
         <is>
-          <t>在成本分析中 - 使用每日粒度，按服務名稱分組，分析過去 3 個月的支出，並確定前 3 名支出者</t>
+          <t>在成本分析中 - 使用每日粒度，按服務名稱分組，以分析過去 3 個月的支出並確定前 3 名支出者</t>
         </is>
       </c>
       <c r="D35" s="21" t="n"/>
-      <c r="E35" s="21" t="n"/>
+      <c r="E35" s="21" t="inlineStr">
+        <is>
+          <t>中等</t>
+        </is>
+      </c>
       <c r="F35" t="inlineStr">
         <is>
           <t>未驗證</t>
@@ -2268,11 +2380,15 @@
       </c>
       <c r="C36" s="21" t="inlineStr">
         <is>
-          <t>每天檢查成本峰值和異常情況（理想情況下使用自動計費匯出）</t>
+          <t>每天檢查成本峰值和異常情況（最好使用自動計費匯出）</t>
         </is>
       </c>
       <c r="D36" s="21" t="n"/>
-      <c r="E36" s="21" t="n"/>
+      <c r="E36" s="21" t="inlineStr">
+        <is>
+          <t>中等</t>
+        </is>
+      </c>
       <c r="F36" t="inlineStr">
         <is>
           <t>未驗證</t>
@@ -2310,11 +2426,15 @@
       </c>
       <c r="C37" s="21" t="inlineStr">
         <is>
-          <t>自動檢索成本以進行深度分析或集成</t>
+          <t>自動檢索成本以進行深入分析或集成</t>
         </is>
       </c>
       <c r="D37" s="21" t="n"/>
-      <c r="E37" s="21" t="n"/>
+      <c r="E37" s="21" t="inlineStr">
+        <is>
+          <t>中等</t>
+        </is>
+      </c>
       <c r="F37" t="inlineStr">
         <is>
           <t>未驗證</t>
@@ -2352,11 +2472,15 @@
       </c>
       <c r="C38" s="21" t="inlineStr">
         <is>
-          <t>利用 Azure 免費服務：Azure 提供了許多免費服務，例如 DevOps、Azure 容器註冊表和 Azure 邏輯應用，可説明你節省開發和運營成本。</t>
+          <t>利用 Azure 免費服務：Azure 提供許多免費服務，例如 DevOps、Azure 容器註冊表和 Azure 邏輯應用，這些服務可説明你節省開發和運營成本。</t>
         </is>
       </c>
       <c r="D38" s="21" t="n"/>
-      <c r="E38" s="21" t="n"/>
+      <c r="E38" s="21" t="inlineStr">
+        <is>
+          <t>中等</t>
+        </is>
+      </c>
       <c r="F38" t="inlineStr">
         <is>
           <t>未驗證</t>
@@ -2398,7 +2522,11 @@
         </is>
       </c>
       <c r="D39" s="21" t="n"/>
-      <c r="E39" s="21" t="n"/>
+      <c r="E39" s="21" t="inlineStr">
+        <is>
+          <t>中等</t>
+        </is>
+      </c>
       <c r="F39" t="inlineStr">
         <is>
           <t>未驗證</t>
@@ -2436,11 +2564,15 @@
       </c>
       <c r="C40" s="21" t="inlineStr">
         <is>
-          <t>考慮使用標記到所有服務進行成本分配</t>
+          <t>考慮對所有服務使用標籤進行成本分配</t>
         </is>
       </c>
       <c r="D40" s="21" t="n"/>
-      <c r="E40" s="21" t="n"/>
+      <c r="E40" s="21" t="inlineStr">
+        <is>
+          <t>中等</t>
+        </is>
+      </c>
       <c r="F40" t="inlineStr">
         <is>
           <t>未驗證</t>
@@ -2478,11 +2610,15 @@
       </c>
       <c r="C41" s="21" t="inlineStr">
         <is>
-          <t>考慮預訂自動化來跟蹤變化並及時做出反應</t>
+          <t>考慮使用預訂自動化來跟蹤並及時回應更改</t>
         </is>
       </c>
       <c r="D41" s="21" t="n"/>
-      <c r="E41" s="21" t="n"/>
+      <c r="E41" s="21" t="inlineStr">
+        <is>
+          <t>中等</t>
+        </is>
+      </c>
       <c r="F41" t="inlineStr">
         <is>
           <t>未驗證</t>
@@ -2525,10 +2661,14 @@
       </c>
       <c r="D42" s="21" t="inlineStr">
         <is>
-          <t>通過在成本分析系統中搜索計量類別許可證進行檢查</t>
-        </is>
-      </c>
-      <c r="E42" s="21" t="n"/>
+          <t>通過在 Cost analysys 中搜索 Meter Category Licenses 進行檢查</t>
+        </is>
+      </c>
+      <c r="E42" s="21" t="inlineStr">
+        <is>
+          <t>中等</t>
+        </is>
+      </c>
       <c r="F42" t="inlineStr">
         <is>
           <t>未驗證</t>
@@ -2561,16 +2701,20 @@
       </c>
       <c r="B43" s="21" t="inlineStr">
         <is>
-          <t>檢查紅帽許可證（如果適用）</t>
+          <t>檢查 Red Hat 許可證（如果適用）</t>
         </is>
       </c>
       <c r="C43" s="21" t="inlineStr">
         <is>
-          <t>如果您已經擁有許可證，也可以將其置於 AHUB https://learn.microsoft.com/azure/virtual-machines/linux/azure-hybrid-benefit-linux?tabs=rhelpayg%2Crhelbyos%2CrhelEnablebyos%2Crhelcompliance</t>
+          <t>如果您已經擁有許可證，也可以將其放在 AHUB 下 https://learn.microsoft.com/azure/virtual-machines/linux/azure-hybrid-benefit-linux?tabs=rhelpayg%2Crhelbyos%2CrhelEnablebyos%2Crhelcompliance</t>
         </is>
       </c>
       <c r="D43" s="21" t="n"/>
-      <c r="E43" s="21" t="n"/>
+      <c r="E43" s="21" t="inlineStr">
+        <is>
+          <t>中等</t>
+        </is>
+      </c>
       <c r="F43" t="inlineStr">
         <is>
           <t>未驗證</t>
@@ -2608,11 +2752,15 @@
       </c>
       <c r="C44" s="21" t="inlineStr">
         <is>
-          <t>節省計劃將為選定的應用服務計劃提供17%的折扣</t>
+          <t>節省計劃將為選定的應用程式服務計劃提供17%的服務</t>
         </is>
       </c>
       <c r="D44" s="21" t="n"/>
-      <c r="E44" s="21" t="n"/>
+      <c r="E44" s="21" t="inlineStr">
+        <is>
+          <t>中等</t>
+        </is>
+      </c>
       <c r="F44" t="inlineStr">
         <is>
           <t>未驗證</t>
@@ -2650,11 +2798,15 @@
       </c>
       <c r="C45" s="21" t="inlineStr">
         <is>
-          <t>使用靈活性選項（不超過 4-5 個系列）整合保留的 VM 系列</t>
+          <t>使用靈活性選項整合預留 VM 系列（不超過 4-5 個系列）</t>
         </is>
       </c>
       <c r="D45" s="21" t="n"/>
-      <c r="E45" s="21" t="n"/>
+      <c r="E45" s="21" t="inlineStr">
+        <is>
+          <t>中等</t>
+        </is>
+      </c>
       <c r="F45" t="inlineStr">
         <is>
           <t>未驗證</t>
@@ -2691,16 +2843,20 @@
       </c>
       <c r="B46" s="21" t="inlineStr">
         <is>
-          <t>預訂/儲蓄計劃</t>
+          <t>預留/節省計劃</t>
         </is>
       </c>
       <c r="C46" s="21" t="inlineStr">
         <is>
-          <t>利用 Azure 預留實例：此功能允許將 VM 預留 1 年或 3 年，與 PAYG 價格相比，可顯著節省成本。</t>
+          <t>利用 Azure 預留實例：此功能允許您將 VM 預留 1 年或 3 年，與 PAYG 價格相比，可節省大量成本。</t>
         </is>
       </c>
       <c r="D46" s="21" t="n"/>
-      <c r="E46" s="21" t="n"/>
+      <c r="E46" s="21" t="inlineStr">
+        <is>
+          <t>中等</t>
+        </is>
+      </c>
       <c r="F46" t="inlineStr">
         <is>
           <t>未驗證</t>
@@ -2733,7 +2889,7 @@
       </c>
       <c r="B47" s="21" t="inlineStr">
         <is>
-          <t>預訂/儲蓄計劃</t>
+          <t>預留/節省計劃</t>
         </is>
       </c>
       <c r="C47" s="21" t="inlineStr">
@@ -2742,7 +2898,11 @@
         </is>
       </c>
       <c r="D47" s="21" t="n"/>
-      <c r="E47" s="21" t="n"/>
+      <c r="E47" s="21" t="inlineStr">
+        <is>
+          <t>中等</t>
+        </is>
+      </c>
       <c r="F47" t="inlineStr">
         <is>
           <t>未驗證</t>
@@ -2775,16 +2935,20 @@
       </c>
       <c r="B48" s="21" t="inlineStr">
         <is>
-          <t>預訂/儲蓄計劃</t>
+          <t>預留/節省計劃</t>
         </is>
       </c>
       <c r="C48" s="21" t="inlineStr">
         <is>
-          <t>為所有動態性較低且變化不大的工作負載規劃 Azure 預留</t>
+          <t>為所有動態性較低且不會發生太大變化的工作負載規劃 Azure 預留</t>
         </is>
       </c>
       <c r="D48" s="21" t="n"/>
-      <c r="E48" s="21" t="n"/>
+      <c r="E48" s="21" t="inlineStr">
+        <is>
+          <t>中等</t>
+        </is>
+      </c>
       <c r="F48" t="inlineStr">
         <is>
           <t>未驗證</t>
@@ -2821,11 +2985,15 @@
       </c>
       <c r="C49" s="21" t="inlineStr">
         <is>
-          <t>只能保留較大的磁碟 =&gt; 1 TiB -</t>
+          <t>只能預留較大的磁碟 =&gt; 1 TiB -</t>
         </is>
       </c>
       <c r="D49" s="21" t="n"/>
-      <c r="E49" s="21" t="n"/>
+      <c r="E49" s="21" t="inlineStr">
+        <is>
+          <t>中等</t>
+        </is>
+      </c>
       <c r="F49" t="inlineStr">
         <is>
           <t>未驗證</t>
@@ -2857,16 +3025,20 @@
       </c>
       <c r="B50" s="21" t="inlineStr">
         <is>
-          <t>保留具有規範化和合理化大小的 VM</t>
+          <t>預留具有規範化和合理化大小的 VM</t>
         </is>
       </c>
       <c r="C50" s="21" t="inlineStr">
         <is>
-          <t>調整大小優化后</t>
+          <t>在合理調整大小優化之後</t>
         </is>
       </c>
       <c r="D50" s="21" t="n"/>
-      <c r="E50" s="21" t="n"/>
+      <c r="E50" s="21" t="inlineStr">
+        <is>
+          <t>中等</t>
+        </is>
+      </c>
       <c r="F50" t="inlineStr">
         <is>
           <t>未驗證</t>
@@ -2904,11 +3076,15 @@
       </c>
       <c r="C51" s="21" t="inlineStr">
         <is>
-          <t>檢查是否適用並強制執行策略/更改 https://learn.microsoft.com/azure/azure-sql/azure-hybrid-benefit?view=azuresql&amp;tabs=azure-portalhttps://learn.microsoft.com/azure/cost-management-billing/scope-level/create-sql-license-assignments?source=recommendations</t>
+          <t>檢查是否適用並強制實施策略/更改 https://learn.microsoft.com/azure/azure-sql/azure-hybrid-benefit?view=azuresql&amp;tabs=azure-portalhttps://learn.microsoft.com/azure/cost-management-billing/scope-level/create-sql-license-assignments?source=recommendations</t>
         </is>
       </c>
       <c r="D51" s="21" t="n"/>
-      <c r="E51" s="21" t="n"/>
+      <c r="E51" s="21" t="inlineStr">
+        <is>
+          <t>中等</t>
+        </is>
+      </c>
       <c r="F51" t="inlineStr">
         <is>
           <t>未驗證</t>
@@ -2946,11 +3122,15 @@
       </c>
       <c r="C52" s="21" t="inlineStr">
         <is>
-          <t>虛擬機 + 許可證部分折扣 （ahub + 3YRI） 約為 70% 的折扣</t>
+          <t>VM + 許可證部分折扣 （ahub + 3YRI） 約為 70% 的折扣</t>
         </is>
       </c>
       <c r="D52" s="21" t="n"/>
-      <c r="E52" s="21" t="n"/>
+      <c r="E52" s="21" t="inlineStr">
+        <is>
+          <t>中等</t>
+        </is>
+      </c>
       <c r="F52" t="inlineStr">
         <is>
           <t>未驗證</t>
@@ -2988,11 +3168,15 @@
       </c>
       <c r="C53" s="21" t="inlineStr">
         <is>
-          <t>請確保 Azure 預留和節省計劃接近 100% 的利用率，或進行必要的更改以達到該比率。</t>
+          <t>確保 Azure 預留和 Savings 計劃的利用率接近 100%，或進行必要的更改以達到該利用率。</t>
         </is>
       </c>
       <c r="D53" s="21" t="n"/>
-      <c r="E53" s="21" t="n"/>
+      <c r="E53" s="21" t="inlineStr">
+        <is>
+          <t>中等</t>
+        </is>
+      </c>
       <c r="F53" t="inlineStr">
         <is>
           <t>未驗證</t>
@@ -3029,11 +3213,15 @@
       </c>
       <c r="C54" s="21" t="inlineStr">
         <is>
-          <t>確保您的預訂使用率接近 100%。如果沒有，請強制執行允許的 SKU 策略或交換預留</t>
+          <t>確保您的預留使用率接近 100%。否則，請實施允許的 SKU 策略或交換預留</t>
         </is>
       </c>
       <c r="D54" s="21" t="n"/>
-      <c r="E54" s="21" t="n"/>
+      <c r="E54" s="21" t="inlineStr">
+        <is>
+          <t>中等</t>
+        </is>
+      </c>
       <c r="F54" t="inlineStr">
         <is>
           <t>未驗證</t>
@@ -3061,7 +3249,7 @@
     <row r="55" ht="16.5" customHeight="1">
       <c r="A55" s="21" t="inlineStr">
         <is>
-          <t>調整大小</t>
+          <t>合理調整大小</t>
         </is>
       </c>
       <c r="B55" s="21" t="inlineStr">
@@ -3071,11 +3259,15 @@
       </c>
       <c r="C55" s="21" t="inlineStr">
         <is>
-          <t>在可能的情況下，規劃並強制執行生產服務的開/關策略</t>
+          <t>在可能的情況下，為生產服務規劃和實施 On/Off 策略</t>
         </is>
       </c>
       <c r="D55" s="21" t="n"/>
-      <c r="E55" s="21" t="n"/>
+      <c r="E55" s="21" t="inlineStr">
+        <is>
+          <t>中等</t>
+        </is>
+      </c>
       <c r="F55" t="inlineStr">
         <is>
           <t>未驗證</t>
@@ -3102,7 +3294,7 @@
     <row r="56" ht="16.5" customHeight="1">
       <c r="A56" s="21" t="inlineStr">
         <is>
-          <t>調整大小</t>
+          <t>合理調整大小</t>
         </is>
       </c>
       <c r="B56" s="21" t="inlineStr">
@@ -3112,11 +3304,15 @@
       </c>
       <c r="C56" s="21" t="inlineStr">
         <is>
-          <t>在可能的情況下，規劃並強制實施具有自動關閉非生產服務的按需策略</t>
+          <t>在可能的情況下，為非生產服務規劃和實施具有自動關閉功能的按需策略</t>
         </is>
       </c>
       <c r="D56" s="21" t="n"/>
-      <c r="E56" s="21" t="n"/>
+      <c r="E56" s="21" t="inlineStr">
+        <is>
+          <t>中等</t>
+        </is>
+      </c>
       <c r="F56" t="inlineStr">
         <is>
           <t>未驗證</t>
@@ -3143,7 +3339,7 @@
     <row r="57" ht="16.5" customHeight="1">
       <c r="A57" s="21" t="inlineStr">
         <is>
-          <t>調整大小</t>
+          <t>合理調整大小</t>
         </is>
       </c>
       <c r="B57" s="21" t="inlineStr">
@@ -3153,11 +3349,15 @@
       </c>
       <c r="C57" s="21" t="inlineStr">
         <is>
-          <t>考慮使用 VMSS 來滿足需求，而不是按比例調整</t>
+          <t>考慮使用 VMSS 來匹配需求，而不是平面大小</t>
         </is>
       </c>
       <c r="D57" s="21" t="n"/>
-      <c r="E57" s="21" t="n"/>
+      <c r="E57" s="21" t="inlineStr">
+        <is>
+          <t>中等</t>
+        </is>
+      </c>
       <c r="F57" t="inlineStr">
         <is>
           <t>未驗證</t>
@@ -3184,7 +3384,7 @@
     <row r="58" ht="16.5" customHeight="1">
       <c r="A58" s="21" t="inlineStr">
         <is>
-          <t>調整大小</t>
+          <t>合理調整大小</t>
         </is>
       </c>
       <c r="B58" s="21" t="inlineStr">
@@ -3198,7 +3398,11 @@
         </is>
       </c>
       <c r="D58" s="21" t="n"/>
-      <c r="E58" s="21" t="n"/>
+      <c r="E58" s="21" t="inlineStr">
+        <is>
+          <t>中等</t>
+        </is>
+      </c>
       <c r="F58" t="inlineStr">
         <is>
           <t>未驗證</t>
@@ -3225,7 +3429,7 @@
     <row r="59" ht="16.5" customHeight="1">
       <c r="A59" s="21" t="inlineStr">
         <is>
-          <t>調整大小</t>
+          <t>合理調整大小</t>
         </is>
       </c>
       <c r="B59" s="21" t="inlineStr">
@@ -3235,11 +3439,15 @@
       </c>
       <c r="C59" s="21" t="inlineStr">
         <is>
-          <t>根據平均使用方式調整 PaaS 服務的規模，並通過自動或手動擴展來適應峰值</t>
+          <t>根據平均使用情況合理調整 PaaS 服務的規模，並通過自動或手動擴展來適應峰值</t>
         </is>
       </c>
       <c r="D59" s="21" t="n"/>
-      <c r="E59" s="21" t="n"/>
+      <c r="E59" s="21" t="inlineStr">
+        <is>
+          <t>中等</t>
+        </is>
+      </c>
       <c r="F59" t="inlineStr">
         <is>
           <t>未驗證</t>
@@ -3266,7 +3474,7 @@
     <row r="60" ht="16.5" customHeight="1">
       <c r="A60" s="21" t="inlineStr">
         <is>
-          <t>調整大小</t>
+          <t>合理調整大小</t>
         </is>
       </c>
       <c r="B60" s="21" t="inlineStr">
@@ -3280,7 +3488,11 @@
         </is>
       </c>
       <c r="D60" s="21" t="n"/>
-      <c r="E60" s="21" t="n"/>
+      <c r="E60" s="21" t="inlineStr">
+        <is>
+          <t>中等</t>
+        </is>
+      </c>
       <c r="F60" t="inlineStr">
         <is>
           <t>未驗證</t>
@@ -3307,7 +3519,7 @@
     <row r="61" ht="16.5" customHeight="1">
       <c r="A61" s="21" t="inlineStr">
         <is>
-          <t>調整大小</t>
+          <t>合理調整大小</t>
         </is>
       </c>
       <c r="B61" s="21" t="inlineStr">
@@ -3317,11 +3529,15 @@
       </c>
       <c r="C61" s="21" t="inlineStr">
         <is>
-          <t>請考慮在應用程式中實現服務重新縮放邏輯</t>
+          <t>考慮在應用程式中實現服務重新縮放邏輯</t>
         </is>
       </c>
       <c r="D61" s="21" t="n"/>
-      <c r="E61" s="21" t="n"/>
+      <c r="E61" s="21" t="inlineStr">
+        <is>
+          <t>中等</t>
+        </is>
+      </c>
       <c r="F61" t="inlineStr">
         <is>
           <t>未驗證</t>
@@ -3349,7 +3565,7 @@
     <row r="62" ht="16.5" customHeight="1">
       <c r="A62" s="21" t="inlineStr">
         <is>
-          <t>調整大小</t>
+          <t>合理調整大小</t>
         </is>
       </c>
       <c r="B62" s="21" t="inlineStr">
@@ -3359,11 +3575,15 @@
       </c>
       <c r="C62" s="21" t="inlineStr">
         <is>
-          <t>將恢復點移至保管庫存檔（如果適用）（驗證）</t>
+          <t>將恢復點移動到 vault-archive（如果適用）（驗證）</t>
         </is>
       </c>
       <c r="D62" s="21" t="n"/>
-      <c r="E62" s="21" t="n"/>
+      <c r="E62" s="21" t="inlineStr">
+        <is>
+          <t>中等</t>
+        </is>
+      </c>
       <c r="F62" t="inlineStr">
         <is>
           <t>未驗證</t>
@@ -3395,21 +3615,25 @@
     <row r="63" ht="16.5" customHeight="1">
       <c r="A63" s="21" t="inlineStr">
         <is>
-          <t>調整大小</t>
+          <t>合理調整大小</t>
         </is>
       </c>
       <c r="B63" s="21" t="inlineStr">
         <is>
-          <t>Databricks 數據磚塊</t>
+          <t>Databricks</t>
         </is>
       </c>
       <c r="C63" s="21" t="inlineStr">
         <is>
-          <t>請考慮盡可能使用帶回退功能的現成 VM。考慮群集的自動終止。</t>
+          <t>盡可能考慮使用具有回退功能的現成 VM。考慮集群的自動終止。</t>
         </is>
       </c>
       <c r="D63" s="21" t="n"/>
-      <c r="E63" s="21" t="n"/>
+      <c r="E63" s="21" t="inlineStr">
+        <is>
+          <t>中等</t>
+        </is>
+      </c>
       <c r="F63" t="inlineStr">
         <is>
           <t>未驗證</t>
@@ -3437,7 +3661,7 @@
     <row r="64" ht="16.5" customHeight="1">
       <c r="A64" s="21" t="inlineStr">
         <is>
-          <t>調整大小</t>
+          <t>合理調整大小</t>
         </is>
       </c>
       <c r="B64" s="21" t="inlineStr">
@@ -3447,11 +3671,15 @@
       </c>
       <c r="C64" s="21" t="inlineStr">
         <is>
-          <t>功能 - 重用連接</t>
+          <t>函數 - 重用連接</t>
         </is>
       </c>
       <c r="D64" s="21" t="n"/>
-      <c r="E64" s="21" t="n"/>
+      <c r="E64" s="21" t="inlineStr">
+        <is>
+          <t>中等</t>
+        </is>
+      </c>
       <c r="F64" t="inlineStr">
         <is>
           <t>未驗證</t>
@@ -3483,7 +3711,7 @@
     <row r="65" ht="16.5" customHeight="1">
       <c r="A65" s="21" t="inlineStr">
         <is>
-          <t>調整大小</t>
+          <t>合理調整大小</t>
         </is>
       </c>
       <c r="B65" s="21" t="inlineStr">
@@ -3493,11 +3721,15 @@
       </c>
       <c r="C65" s="21" t="inlineStr">
         <is>
-          <t>函數 - 本地快取資料</t>
+          <t>函數 - 在本地緩存數據</t>
         </is>
       </c>
       <c r="D65" s="21" t="n"/>
-      <c r="E65" s="21" t="n"/>
+      <c r="E65" s="21" t="inlineStr">
+        <is>
+          <t>中等</t>
+        </is>
+      </c>
       <c r="F65" t="inlineStr">
         <is>
           <t>未驗證</t>
@@ -3529,7 +3761,7 @@
     <row r="66" ht="16.5" customHeight="1">
       <c r="A66" s="21" t="inlineStr">
         <is>
-          <t>調整大小</t>
+          <t>合理調整大小</t>
         </is>
       </c>
       <c r="B66" s="21" t="inlineStr">
@@ -3539,11 +3771,15 @@
       </c>
       <c r="C66" s="21" t="inlineStr">
         <is>
-          <t>函數 - 冷啟動 - 使用“從包運行”功能。這樣，代碼將下載為單個 zip 檔。例如，這可以顯著改進具有大量節點模組的 Javascript 函數。使用特定於語言的工具來減小包大小，例如，搖樹 Javascript 應用程式。</t>
+          <t>功能 - 冷啟動 - 使用“從包運行”功能。這樣，代碼將下載為單個 zip 檔。例如，這可能會導致 Javascript 函數的顯著改進，這些函數具有許多 node 模組。使用特定於語言的工具來減小包的大小，例如，樹狀shaking Javascript 應用程式。</t>
         </is>
       </c>
       <c r="D66" s="21" t="n"/>
-      <c r="E66" s="21" t="n"/>
+      <c r="E66" s="21" t="inlineStr">
+        <is>
+          <t>中等</t>
+        </is>
+      </c>
       <c r="F66" t="inlineStr">
         <is>
           <t>未驗證</t>
@@ -3575,7 +3811,7 @@
     <row r="67" ht="16.5" customHeight="1">
       <c r="A67" s="21" t="inlineStr">
         <is>
-          <t>調整大小</t>
+          <t>合理調整大小</t>
         </is>
       </c>
       <c r="B67" s="21" t="inlineStr">
@@ -3585,11 +3821,15 @@
       </c>
       <c r="C67" s="21" t="inlineStr">
         <is>
-          <t>功能 - 保持功能溫暖</t>
+          <t>Functions - 讓您的 Functions 保持溫暖</t>
         </is>
       </c>
       <c r="D67" s="21" t="n"/>
-      <c r="E67" s="21" t="n"/>
+      <c r="E67" s="21" t="inlineStr">
+        <is>
+          <t>中等</t>
+        </is>
+      </c>
       <c r="F67" t="inlineStr">
         <is>
           <t>未驗證</t>
@@ -3621,7 +3861,7 @@
     <row r="68" ht="16.5" customHeight="1">
       <c r="A68" s="21" t="inlineStr">
         <is>
-          <t>調整大小</t>
+          <t>合理調整大小</t>
         </is>
       </c>
       <c r="B68" s="21" t="inlineStr">
@@ -3631,11 +3871,15 @@
       </c>
       <c r="C68" s="21" t="inlineStr">
         <is>
-          <t>使用具有不同功能的自動縮放時，可能會有一個資源驅動所有資源的所有自動縮放 - 請考慮將其移動到單獨的消耗計劃（並考慮更高的 CPU 計劃）</t>
+          <t>將自動縮放與不同的函數一起使用時，可能有一個函數驅動所有資源的所有自動縮放 - 請考慮將其移動到單獨的消耗計劃（並考慮更高的 CPU 計劃）</t>
         </is>
       </c>
       <c r="D68" s="21" t="n"/>
-      <c r="E68" s="21" t="n"/>
+      <c r="E68" s="21" t="inlineStr">
+        <is>
+          <t>中等</t>
+        </is>
+      </c>
       <c r="F68" t="inlineStr">
         <is>
           <t>未驗證</t>
@@ -3663,7 +3907,7 @@
     <row r="69" ht="16.5" customHeight="1">
       <c r="A69" s="21" t="inlineStr">
         <is>
-          <t>調整大小</t>
+          <t>合理調整大小</t>
         </is>
       </c>
       <c r="B69" s="21" t="inlineStr">
@@ -3673,11 +3917,15 @@
       </c>
       <c r="C69" s="21" t="inlineStr">
         <is>
-          <t>給定計劃中的函數應用都縮放在一起，因此縮放的任何問題都可能影響計劃中的所有應用。</t>
+          <t>給定計劃中的函數應用都是一起縮放的，因此縮放的任何問題都可能影響計劃中的所有應用。</t>
         </is>
       </c>
       <c r="D69" s="21" t="n"/>
-      <c r="E69" s="21" t="n"/>
+      <c r="E69" s="21" t="inlineStr">
+        <is>
+          <t>中等</t>
+        </is>
+      </c>
       <c r="F69" t="inlineStr">
         <is>
           <t>未驗證</t>
@@ -3705,7 +3953,7 @@
     <row r="70" ht="16.5" customHeight="1">
       <c r="A70" s="21" t="inlineStr">
         <is>
-          <t>調整大小</t>
+          <t>合理調整大小</t>
         </is>
       </c>
       <c r="B70" s="21" t="inlineStr">
@@ -3715,11 +3963,15 @@
       </c>
       <c r="C70" s="21" t="inlineStr">
         <is>
-          <t>我需要為「等待時間」付費嗎？這個問題通常是在執行異步操作並等待結果的 C# 函數的上下文中提出的，例如 await Task.Delay（1000） 或 await client。GetAsync（'http：//google.com'）。答案是肯定的 - GB 秒計算基於函數的開始和結束時間以及該時間段內的記憶體使用方式。在這段時間內實際發生的CPU活動未計入計算。此規則的一個例外是，如果使用的是持久函數。您無需為在業務流程協調程式函數中等待所花費的時間付費。在可能的情況下應用需求塑造技術（開發環境？）https://github.com/Azure-Samples/functions-csharp-premium-scaler</t>
+          <t>我是否需要為「等待時間」付費？此問題通常在執行異步操作並等待結果的 C# 函數的上下文中提出，例如 await Task.Delay（1000） 或 await client。GetAsync（'HTTP：//google.com'） 的答案是肯定的 - GB 秒計算基於函數的開始和結束時間以及該時間段內的記憶體使用方式。在這段時間內，CPU 活動的實際情況未被考慮在內。此規則的一個例外是，如果您使用的是 Durable Functions。您無需為在 orchestrator 函數中等待所花費的時間付費。請盡可能應用需求塑造技術（開發環境？https://github.com/Azure-Samples/functions-csharp-premium-scaler</t>
         </is>
       </c>
       <c r="D70" s="21" t="n"/>
-      <c r="E70" s="21" t="n"/>
+      <c r="E70" s="21" t="inlineStr">
+        <is>
+          <t>中等</t>
+        </is>
+      </c>
       <c r="F70" t="inlineStr">
         <is>
           <t>未驗證</t>
@@ -3747,7 +3999,7 @@
     <row r="71" ht="16.5" customHeight="1">
       <c r="A71" s="21" t="inlineStr">
         <is>
-          <t>調整大小</t>
+          <t>合理調整大小</t>
         </is>
       </c>
       <c r="B71" s="21" t="inlineStr">
@@ -3757,11 +4009,15 @@
       </c>
       <c r="C71" s="21" t="inlineStr">
         <is>
-          <t>根據網路成本評估網路拓撲，並在適用的情況下減少出口和對等數據</t>
+          <t>根據網路成本評估您的網路拓撲，並在適用的情況下減少出口和對等數據</t>
         </is>
       </c>
       <c r="D71" s="21" t="n"/>
-      <c r="E71" s="21" t="n"/>
+      <c r="E71" s="21" t="inlineStr">
+        <is>
+          <t>中等</t>
+        </is>
+      </c>
       <c r="F71" t="inlineStr">
         <is>
           <t>未驗證</t>
@@ -3789,7 +4045,7 @@
     <row r="72" ht="16.5" customHeight="1">
       <c r="A72" s="21" t="inlineStr">
         <is>
-          <t>調整大小</t>
+          <t>合理調整大小</t>
         </is>
       </c>
       <c r="B72" s="21" t="inlineStr">
@@ -3799,11 +4055,15 @@
       </c>
       <c r="C72" s="21" t="inlineStr">
         <is>
-          <t>Frontdoor - 關閉預設主頁在應用的應用程式設置中，將 AzureWebJobsDisableHomepage 設置為 true。這將向PoP返回204（無內容），因此僅返回標頭數據。</t>
+          <t>Frontdoor - 關閉預設主頁在應用的應用程式設置中，將 AzureWebJobsDisableHomepage 設置為 true。這將向 PoP 傳回 204 （No Content），因此僅返回標頭數據。</t>
         </is>
       </c>
       <c r="D72" s="21" t="n"/>
-      <c r="E72" s="21" t="n"/>
+      <c r="E72" s="21" t="inlineStr">
+        <is>
+          <t>中等</t>
+        </is>
+      </c>
       <c r="F72" t="inlineStr">
         <is>
           <t>未驗證</t>
@@ -3831,7 +4091,7 @@
     <row r="73" ht="16.5" customHeight="1">
       <c r="A73" s="21" t="inlineStr">
         <is>
-          <t>調整大小</t>
+          <t>合理調整大小</t>
         </is>
       </c>
       <c r="B73" s="21" t="inlineStr">
@@ -3841,11 +4101,15 @@
       </c>
       <c r="C73" s="21" t="inlineStr">
         <is>
-          <t>Frontdoor - 路由到不返回任何內容的內容。設置函數、函數代理，或在 WebApp 中添加返回 200 （OK） 且不發送內容或發送最少內容的路由。這樣做的好處是您可以在調用時註銷。</t>
+          <t>Frontdoor - 路由到不返回任何內容的內容。設置 Function、Function Proxy，或者在 WebApp 中添加一個返回 200 （OK） 並且不發送或發送最少內容的路由。這樣做的好處是您可以在調用它時註銷。</t>
         </is>
       </c>
       <c r="D73" s="21" t="n"/>
-      <c r="E73" s="21" t="n"/>
+      <c r="E73" s="21" t="inlineStr">
+        <is>
+          <t>中等</t>
+        </is>
+      </c>
       <c r="F73" t="inlineStr">
         <is>
           <t>未驗證</t>
@@ -3873,7 +4137,7 @@
     <row r="74" ht="16.5" customHeight="1">
       <c r="A74" s="21" t="inlineStr">
         <is>
-          <t>調整大小</t>
+          <t>合理調整大小</t>
         </is>
       </c>
       <c r="B74" s="21" t="inlineStr">
@@ -3887,7 +4151,11 @@
         </is>
       </c>
       <c r="D74" s="21" t="n"/>
-      <c r="E74" s="21" t="n"/>
+      <c r="E74" s="21" t="inlineStr">
+        <is>
+          <t>中等</t>
+        </is>
+      </c>
       <c r="F74" t="inlineStr">
         <is>
           <t>未驗證</t>
@@ -3915,7 +4183,7 @@
     <row r="75" ht="16.5" customHeight="1">
       <c r="A75" s="21" t="inlineStr">
         <is>
-          <t>調整大小</t>
+          <t>合理調整大小</t>
         </is>
       </c>
       <c r="B75" s="21" t="inlineStr">
@@ -3925,11 +4193,15 @@
       </c>
       <c r="C75" s="21" t="inlineStr">
         <is>
-          <t>使用無伺服器模式進行峰值有助於降低成本</t>
+          <t>使用無伺服器模式實現峰值有助於降低成本</t>
         </is>
       </c>
       <c r="D75" s="21" t="n"/>
-      <c r="E75" s="21" t="n"/>
+      <c r="E75" s="21" t="inlineStr">
+        <is>
+          <t>中等</t>
+        </is>
+      </c>
       <c r="F75" t="inlineStr">
         <is>
           <t>未驗證</t>
@@ -3957,7 +4229,7 @@
     <row r="76" ht="16.5" customHeight="1">
       <c r="A76" s="21" t="inlineStr">
         <is>
-          <t>調整大小</t>
+          <t>合理調整大小</t>
         </is>
       </c>
       <c r="B76" s="21" t="inlineStr">
@@ -3967,11 +4239,15 @@
       </c>
       <c r="C76" s="21" t="inlineStr">
         <is>
-          <t>考慮為使用較少的數據存檔層</t>
+          <t>考慮為較少使用的數據存檔層</t>
         </is>
       </c>
       <c r="D76" s="21" t="n"/>
-      <c r="E76" s="21" t="n"/>
+      <c r="E76" s="21" t="inlineStr">
+        <is>
+          <t>中等</t>
+        </is>
+      </c>
       <c r="F76" t="inlineStr">
         <is>
           <t>未驗證</t>
@@ -3999,7 +4275,7 @@
     <row r="77" ht="16.5" customHeight="1">
       <c r="A77" s="21" t="inlineStr">
         <is>
-          <t>調整大小</t>
+          <t>合理調整大小</t>
         </is>
       </c>
       <c r="B77" s="21" t="inlineStr">
@@ -4013,7 +4289,11 @@
         </is>
       </c>
       <c r="D77" s="21" t="n"/>
-      <c r="E77" s="21" t="n"/>
+      <c r="E77" s="21" t="inlineStr">
+        <is>
+          <t>中等</t>
+        </is>
+      </c>
       <c r="F77" t="inlineStr">
         <is>
           <t>未驗證</t>
@@ -4041,7 +4321,7 @@
     <row r="78" ht="16.5" customHeight="1">
       <c r="A78" s="21" t="inlineStr">
         <is>
-          <t>調整大小</t>
+          <t>合理調整大小</t>
         </is>
       </c>
       <c r="B78" s="21" t="inlineStr">
@@ -4055,7 +4335,11 @@
         </is>
       </c>
       <c r="D78" s="21" t="n"/>
-      <c r="E78" s="21" t="n"/>
+      <c r="E78" s="21" t="inlineStr">
+        <is>
+          <t>中等</t>
+        </is>
+      </c>
       <c r="F78" t="inlineStr">
         <is>
           <t>未驗證</t>
@@ -4083,7 +4367,7 @@
     <row r="79" ht="16.5" customHeight="1">
       <c r="A79" s="21" t="inlineStr">
         <is>
-          <t>調整大小</t>
+          <t>合理調整大小</t>
         </is>
       </c>
       <c r="B79" s="21" t="inlineStr">
@@ -4097,7 +4381,11 @@
         </is>
       </c>
       <c r="D79" s="21" t="n"/>
-      <c r="E79" s="21" t="n"/>
+      <c r="E79" s="21" t="inlineStr">
+        <is>
+          <t>中等</t>
+        </is>
+      </c>
       <c r="F79" t="inlineStr">
         <is>
           <t>未驗證</t>
@@ -4125,7 +4413,7 @@
     <row r="80" ht="16.5" customHeight="1">
       <c r="A80" s="21" t="inlineStr">
         <is>
-          <t>調整大小</t>
+          <t>合理調整大小</t>
         </is>
       </c>
       <c r="B80" s="21" t="inlineStr">
@@ -4139,7 +4427,11 @@
         </is>
       </c>
       <c r="D80" s="21" t="n"/>
-      <c r="E80" s="21" t="n"/>
+      <c r="E80" s="21" t="inlineStr">
+        <is>
+          <t>中等</t>
+        </is>
+      </c>
       <c r="F80" t="inlineStr">
         <is>
           <t>未驗證</t>
@@ -4167,7 +4459,7 @@
     <row r="81" ht="16.5" customHeight="1">
       <c r="A81" s="21" t="inlineStr">
         <is>
-          <t>調整大小</t>
+          <t>合理調整大小</t>
         </is>
       </c>
       <c r="B81" s="21" t="inlineStr">
@@ -4177,11 +4469,15 @@
       </c>
       <c r="C81" s="21" t="inlineStr">
         <is>
-          <t>存儲帳戶：檢查熱層和/或 GRS 必填</t>
+          <t>存儲帳戶：檢查熱層和/或 GRS 是否必要</t>
         </is>
       </c>
       <c r="D81" s="21" t="n"/>
-      <c r="E81" s="21" t="n"/>
+      <c r="E81" s="21" t="inlineStr">
+        <is>
+          <t>中等</t>
+        </is>
+      </c>
       <c r="F81" t="inlineStr">
         <is>
           <t>未驗證</t>
@@ -4209,7 +4505,7 @@
     <row r="82" ht="16.5" customHeight="1">
       <c r="A82" s="21" t="inlineStr">
         <is>
-          <t>調整大小</t>
+          <t>合理調整大小</t>
         </is>
       </c>
       <c r="B82" s="21" t="inlineStr">
@@ -4219,11 +4515,15 @@
       </c>
       <c r="C82" s="21" t="inlineStr">
         <is>
-          <t>磁碟 - 驗證高級 SSD 磁碟在任何地方的使用方式：例如，非生產磁碟可以交換到標準 SSD 或按需高級 SSD</t>
+          <t>磁碟 - 驗證在任何位置使用高級 SSD 磁碟：例如，非生產可以交換到標準 SSD 或按需高級 SSD</t>
         </is>
       </c>
       <c r="D82" s="21" t="n"/>
-      <c r="E82" s="21" t="n"/>
+      <c r="E82" s="21" t="inlineStr">
+        <is>
+          <t>中等</t>
+        </is>
+      </c>
       <c r="F82" t="inlineStr">
         <is>
           <t>未驗證</t>
@@ -4251,7 +4551,7 @@
     <row r="83" ht="15.75" customHeight="1">
       <c r="A83" s="21" t="inlineStr">
         <is>
-          <t>調整大小</t>
+          <t>合理調整大小</t>
         </is>
       </c>
       <c r="B83" s="21" t="inlineStr">
@@ -4261,11 +4561,15 @@
       </c>
       <c r="C83" s="21" t="inlineStr">
         <is>
-          <t>創建預算以管理成本並創建警報，自動通知利益相關者支出異常和超支風險。</t>
+          <t>創建預算以管理成本，並創建警報，自動通知利益相關者支出異常和超支風險。</t>
         </is>
       </c>
       <c r="D83" s="21" t="n"/>
-      <c r="E83" s="21" t="n"/>
+      <c r="E83" s="21" t="inlineStr">
+        <is>
+          <t>中等</t>
+        </is>
+      </c>
       <c r="F83" t="inlineStr">
         <is>
           <t>未驗證</t>
@@ -4293,7 +4597,7 @@
     <row r="84" ht="16.5" customHeight="1">
       <c r="A84" s="21" t="inlineStr">
         <is>
-          <t>調整大小</t>
+          <t>合理調整大小</t>
         </is>
       </c>
       <c r="B84" s="21" t="inlineStr">
@@ -4307,7 +4611,11 @@
         </is>
       </c>
       <c r="D84" s="21" t="n"/>
-      <c r="E84" s="21" t="n"/>
+      <c r="E84" s="21" t="inlineStr">
+        <is>
+          <t>中等</t>
+        </is>
+      </c>
       <c r="F84" t="inlineStr">
         <is>
           <t>未驗證</t>
@@ -4335,7 +4643,7 @@
     <row r="85" ht="16.5" customHeight="1">
       <c r="A85" s="21" t="inlineStr">
         <is>
-          <t>調整大小</t>
+          <t>合理調整大小</t>
         </is>
       </c>
       <c r="B85" s="21" t="inlineStr">
@@ -4345,11 +4653,15 @@
       </c>
       <c r="C85" s="21" t="inlineStr">
         <is>
-          <t>通過在不使用資源時暫停資源來控制專用 SQL 池的成本。</t>
+          <t>通過在不使用資源時暫停專用 SQL 池來控制其成本。</t>
         </is>
       </c>
       <c r="D85" s="21" t="n"/>
-      <c r="E85" s="21" t="n"/>
+      <c r="E85" s="21" t="inlineStr">
+        <is>
+          <t>中等</t>
+        </is>
+      </c>
       <c r="F85" t="inlineStr">
         <is>
           <t>未驗證</t>
@@ -4377,7 +4689,7 @@
     <row r="86" ht="16.5" customHeight="1">
       <c r="A86" s="21" t="inlineStr">
         <is>
-          <t>調整大小</t>
+          <t>合理調整大小</t>
         </is>
       </c>
       <c r="B86" s="21" t="inlineStr">
@@ -4387,11 +4699,15 @@
       </c>
       <c r="C86" s="21" t="inlineStr">
         <is>
-          <t>啟用無伺服器 Apache Spark 自動暫停功能，並相應地設置超時值。</t>
+          <t>啟用無伺服器 Apache Spark 自動暫停功能並相應地設置超時值。</t>
         </is>
       </c>
       <c r="D86" s="21" t="n"/>
-      <c r="E86" s="21" t="n"/>
+      <c r="E86" s="21" t="inlineStr">
+        <is>
+          <t>中等</t>
+        </is>
+      </c>
       <c r="F86" t="inlineStr">
         <is>
           <t>未驗證</t>
@@ -4419,7 +4735,7 @@
     <row r="87" ht="16.5" customHeight="1">
       <c r="A87" s="21" t="inlineStr">
         <is>
-          <t>調整大小</t>
+          <t>合理調整大小</t>
         </is>
       </c>
       <c r="B87" s="21" t="inlineStr">
@@ -4433,7 +4749,11 @@
         </is>
       </c>
       <c r="D87" s="21" t="n"/>
-      <c r="E87" s="21" t="n"/>
+      <c r="E87" s="21" t="inlineStr">
+        <is>
+          <t>中等</t>
+        </is>
+      </c>
       <c r="F87" t="inlineStr">
         <is>
           <t>未驗證</t>
@@ -4461,7 +4781,7 @@
     <row r="88" ht="16.5" customHeight="1">
       <c r="A88" s="21" t="inlineStr">
         <is>
-          <t>調整大小</t>
+          <t>合理調整大小</t>
         </is>
       </c>
       <c r="B88" s="21" t="inlineStr">
@@ -4471,11 +4791,15 @@
       </c>
       <c r="C88" s="21" t="inlineStr">
         <is>
-          <t>使用預購計劃購買為期一年的 Azure Synapse 提交單元 （SCU），以節省 Azure Synapse Analytics 成本。</t>
+          <t>通過預購計劃購買 Azure Synapse 提交單位 （SCU） 一年，以節省 Azure Synapse Analytics 成本。</t>
         </is>
       </c>
       <c r="D88" s="21" t="n"/>
-      <c r="E88" s="21" t="n"/>
+      <c r="E88" s="21" t="inlineStr">
+        <is>
+          <t>中等</t>
+        </is>
+      </c>
       <c r="F88" t="inlineStr">
         <is>
           <t>未驗證</t>
@@ -4507,7 +4831,7 @@
     <row r="89" ht="16.5" customHeight="1">
       <c r="A89" s="21" t="inlineStr">
         <is>
-          <t>調整大小</t>
+          <t>合理調整大小</t>
         </is>
       </c>
       <c r="B89" s="21" t="inlineStr">
@@ -4517,11 +4841,15 @@
       </c>
       <c r="C89" s="21" t="inlineStr">
         <is>
-          <t>將現成 VM 用於可中斷作業：這些 VM 可以以折扣價競標和購買，為非關鍵工作負載提供經濟高效的解決方案。</t>
+          <t>將Spot VM用於可中斷作業：這些 VM 可以出價並以折扣價購買，為非關鍵工作負載提供經濟高效的解決方案。</t>
         </is>
       </c>
       <c r="D89" s="21" t="n"/>
-      <c r="E89" s="21" t="n"/>
+      <c r="E89" s="21" t="inlineStr">
+        <is>
+          <t>中等</t>
+        </is>
+      </c>
       <c r="F89" t="inlineStr">
         <is>
           <t>未驗證</t>
@@ -4553,7 +4881,7 @@
     <row r="90" ht="16.5" customHeight="1">
       <c r="A90" s="21" t="inlineStr">
         <is>
-          <t>調整大小</t>
+          <t>合理調整大小</t>
         </is>
       </c>
       <c r="B90" s="21" t="inlineStr">
@@ -4567,7 +4895,11 @@
         </is>
       </c>
       <c r="D90" s="21" t="n"/>
-      <c r="E90" s="21" t="n"/>
+      <c r="E90" s="21" t="inlineStr">
+        <is>
+          <t>中等</t>
+        </is>
+      </c>
       <c r="F90" t="inlineStr">
         <is>
           <t>未驗證</t>
@@ -4595,7 +4927,7 @@
     <row r="91" ht="16.5" customHeight="1">
       <c r="A91" s="21" t="inlineStr">
         <is>
-          <t>調整大小</t>
+          <t>合理調整大小</t>
         </is>
       </c>
       <c r="B91" s="21" t="inlineStr">
@@ -4609,7 +4941,11 @@
         </is>
       </c>
       <c r="D91" s="21" t="n"/>
-      <c r="E91" s="21" t="n"/>
+      <c r="E91" s="21" t="inlineStr">
+        <is>
+          <t>中等</t>
+        </is>
+      </c>
       <c r="F91" t="inlineStr">
         <is>
           <t>未驗證</t>
@@ -4641,7 +4977,7 @@
     <row r="92" ht="16.5" customHeight="1">
       <c r="A92" s="21" t="inlineStr">
         <is>
-          <t>調整大小</t>
+          <t>合理調整大小</t>
         </is>
       </c>
       <c r="B92" s="21" t="inlineStr">
@@ -4651,11 +4987,15 @@
       </c>
       <c r="C92" s="21" t="inlineStr">
         <is>
-          <t>調整 VM 大小 - 從低於 5% 的監視使用率開始，然後工作到 40%</t>
+          <t>合理調整 VM 大小 - 從監控低於 5% 的使用方式開始，然後逐漸提高到 40%</t>
         </is>
       </c>
       <c r="D92" s="21" t="n"/>
-      <c r="E92" s="21" t="n"/>
+      <c r="E92" s="21" t="inlineStr">
+        <is>
+          <t>中等</t>
+        </is>
+      </c>
       <c r="F92" t="inlineStr">
         <is>
           <t>未驗證</t>
@@ -4687,7 +5027,7 @@
     <row r="93" ht="16.5" customHeight="1">
       <c r="A93" s="21" t="inlineStr">
         <is>
-          <t>調整大小</t>
+          <t>合理調整大小</t>
         </is>
       </c>
       <c r="B93" s="21" t="inlineStr">
@@ -4701,7 +5041,11 @@
         </is>
       </c>
       <c r="D93" s="21" t="n"/>
-      <c r="E93" s="21" t="n"/>
+      <c r="E93" s="21" t="inlineStr">
+        <is>
+          <t>中等</t>
+        </is>
+      </c>
       <c r="F93" t="inlineStr">
         <is>
           <t>未驗證</t>
@@ -8143,7 +8487,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>此檢查尚未查看</t>
+          <t>尚未查看此檢查</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -8170,7 +8514,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>有一個與此檢查關聯的操作項</t>
+          <t>存在與此檢查關聯的操作項</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -8197,7 +8541,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>此檢查已通過驗證，並且沒有與之關聯的進一步操作項</t>
+          <t>此檢查已經過驗證，沒有與之關聯的其他操作項</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -8219,7 +8563,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>建議已理解，但當前需求不需要</t>
+          <t>建議已理解，但當前要求不需要</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -8236,7 +8580,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>調整大小</t>
+          <t>合理調整大小</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
